--- a/teaching/traditional_assets/database/data/israel/israel_tobacco.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_tobacco.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="plse_jcc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,32 +592,35 @@
           <t>Tobacco</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.00343</v>
+      </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.02261904761904762</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02261904761904762</v>
       </c>
       <c r="I2">
-        <v>0.0228125</v>
+        <v>0.01085978835978836</v>
       </c>
       <c r="J2">
-        <v>0.01862164211438475</v>
+        <v>0.009711616903246859</v>
       </c>
       <c r="K2">
-        <v>0.488</v>
+        <v>0.26</v>
       </c>
       <c r="L2">
-        <v>0.007625</v>
+        <v>0.00343915343915344</v>
       </c>
       <c r="M2">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="N2">
-        <v>0.0006504065040650406</v>
+        <v>0.001651376146788991</v>
       </c>
       <c r="O2">
-        <v>0.01639344262295082</v>
+        <v>0.06923076923076922</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -639,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.07022011347927236</v>
+        <v>0.03906437926105588</v>
       </c>
       <c r="AB2">
-        <v>0.07022011347927236</v>
+        <v>0.03906437926105588</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -663,16 +668,22 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.614</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.606</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>1.337133550488599</v>
+      </c>
       <c r="AP2">
         <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>1.354785478547855</v>
       </c>
     </row>
     <row r="3">
@@ -691,32 +702,35 @@
           <t>Tobacco</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.00343</v>
+      </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.02261904761904762</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02261904761904762</v>
       </c>
       <c r="I3">
-        <v>0.0228125</v>
+        <v>0.01085978835978836</v>
       </c>
       <c r="J3">
-        <v>0.01862164211438475</v>
+        <v>0.009711616903246859</v>
       </c>
       <c r="K3">
-        <v>0.488</v>
+        <v>0.26</v>
       </c>
       <c r="L3">
-        <v>0.007625</v>
+        <v>0.00343915343915344</v>
       </c>
       <c r="M3">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="N3">
-        <v>0.0006504065040650406</v>
+        <v>0.001651376146788991</v>
       </c>
       <c r="O3">
-        <v>0.01639344262295082</v>
+        <v>0.06923076923076922</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -728,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -740,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.07022011347927236</v>
+        <v>0.03906437926105588</v>
       </c>
       <c r="AB3">
-        <v>0.07022011347927236</v>
+        <v>0.03906437926105588</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -764,15 +778,8736 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.614</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.606</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>1.337133550488599</v>
+      </c>
       <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.354785478547855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jerusalem Cigarette Co. Ltd. (PLSE:JCC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PLSE:JCC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.33</v>
+      </c>
+      <c r="G2">
+        <v>10.9</v>
+      </c>
+      <c r="H2">
+        <v>7.76556566026455</v>
+      </c>
+      <c r="I2">
+        <v>10.9</v>
+      </c>
+      <c r="J2">
+        <v>11.3625656602645</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>3.597</v>
+      </c>
+      <c r="M2">
+        <v>0.0390643792610559</v>
+      </c>
+      <c r="N2">
+        <v>0.0378526828751417</v>
+      </c>
+      <c r="O2">
+        <v>0.0195722996801282</v>
+      </c>
+      <c r="P2">
+        <v>0.012474</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0390643792610559</v>
+      </c>
+      <c r="T2">
+        <v>0.050352631156928</v>
+      </c>
+      <c r="U2">
+        <v>0.5510383587069489</v>
+      </c>
+      <c r="V2">
+        <v>0.760021712359838</v>
+      </c>
+      <c r="W2">
+        <v>14.08924446641062</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>10.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.05401507679229468</v>
+      </c>
+      <c r="AC2">
+        <v>0.02541857101315345</v>
+      </c>
+      <c r="AD2">
+        <v>0.23</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.71</v>
+      </c>
+      <c r="AH2">
+        <v>0.889</v>
+      </c>
+      <c r="AI2">
+        <v>1.562</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.614</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.03906437926105588</v>
+      </c>
+      <c r="C2">
+        <v>10.9</v>
+      </c>
+      <c r="D2">
+        <v>10.9</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>10.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.71</v>
+      </c>
+      <c r="K2">
+        <v>0.889</v>
+      </c>
+      <c r="L2">
+        <v>0.821</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.821</v>
+      </c>
+      <c r="O2">
+        <v>0.18883</v>
+      </c>
+      <c r="P2">
+        <v>0.6321699999999999</v>
+      </c>
+      <c r="Q2">
+        <v>1.52117</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.03906437926105588</v>
+      </c>
+      <c r="T2">
+        <v>0.5510383587069492</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.23</v>
+      </c>
+      <c r="W2">
+        <v>0.012474</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.03902766118875545</v>
+      </c>
+      <c r="C3">
+        <v>10.80446311724738</v>
+      </c>
+      <c r="D3">
+        <v>10.91346311724738</v>
+      </c>
+      <c r="E3">
+        <v>0.109</v>
+      </c>
+      <c r="F3">
+        <v>0.109</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>10.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.71</v>
+      </c>
+      <c r="K3">
+        <v>0.889</v>
+      </c>
+      <c r="L3">
+        <v>0.821</v>
+      </c>
+      <c r="M3">
+        <v>0.0017658</v>
+      </c>
+      <c r="N3">
+        <v>0.8192341999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.188423866</v>
+      </c>
+      <c r="P3">
+        <v>0.630810334</v>
+      </c>
+      <c r="Q3">
+        <v>1.519810334</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.03929587998864188</v>
+      </c>
+      <c r="T3">
+        <v>0.5553242126080032</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.23</v>
+      </c>
+      <c r="W3">
+        <v>0.012474</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>464.9450673915505</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.03899094311645503</v>
+      </c>
+      <c r="C4">
+        <v>10.70895953351868</v>
+      </c>
+      <c r="D4">
+        <v>10.92695953351868</v>
+      </c>
+      <c r="E4">
+        <v>0.218</v>
+      </c>
+      <c r="F4">
+        <v>0.218</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>10.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.71</v>
+      </c>
+      <c r="K4">
+        <v>0.889</v>
+      </c>
+      <c r="L4">
+        <v>0.821</v>
+      </c>
+      <c r="M4">
+        <v>0.0035316</v>
+      </c>
+      <c r="N4">
+        <v>0.8174684</v>
+      </c>
+      <c r="O4">
+        <v>0.188017732</v>
+      </c>
+      <c r="P4">
+        <v>0.629450668</v>
+      </c>
+      <c r="Q4">
+        <v>1.518450668</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.03953210522087248</v>
+      </c>
+      <c r="T4">
+        <v>0.5596975329152013</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.23</v>
+      </c>
+      <c r="W4">
+        <v>0.012474</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>232.4725336957753</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.0389542250441546</v>
+      </c>
+      <c r="C5">
+        <v>10.61348937250716</v>
+      </c>
+      <c r="D5">
+        <v>10.94048937250716</v>
+      </c>
+      <c r="E5">
+        <v>0.327</v>
+      </c>
+      <c r="F5">
+        <v>0.327</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>10.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.71</v>
+      </c>
+      <c r="K5">
+        <v>0.889</v>
+      </c>
+      <c r="L5">
+        <v>0.821</v>
+      </c>
+      <c r="M5">
+        <v>0.0052974</v>
+      </c>
+      <c r="N5">
+        <v>0.8157025999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.187611598</v>
+      </c>
+      <c r="P5">
+        <v>0.6280910019999999</v>
+      </c>
+      <c r="Q5">
+        <v>1.517091002</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.03977320107644804</v>
+      </c>
+      <c r="T5">
+        <v>0.564161024775125</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.23</v>
+      </c>
+      <c r="W5">
+        <v>0.012474</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>154.9816891305169</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.03891750697185416</v>
+      </c>
+      <c r="C6">
+        <v>10.51805275851948</v>
+      </c>
+      <c r="D6">
+        <v>10.95405275851948</v>
+      </c>
+      <c r="E6">
+        <v>0.436</v>
+      </c>
+      <c r="F6">
+        <v>0.436</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>10.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.71</v>
+      </c>
+      <c r="K6">
+        <v>0.889</v>
+      </c>
+      <c r="L6">
+        <v>0.821</v>
+      </c>
+      <c r="M6">
+        <v>0.0070632</v>
+      </c>
+      <c r="N6">
+        <v>0.8139367999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.187205464</v>
+      </c>
+      <c r="P6">
+        <v>0.626731336</v>
+      </c>
+      <c r="Q6">
+        <v>1.515731336</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04001931976234809</v>
+      </c>
+      <c r="T6">
+        <v>0.5687175060487971</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.23</v>
+      </c>
+      <c r="W6">
+        <v>0.012474</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>116.2362668478876</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.03888078889955374</v>
+      </c>
+      <c r="C7">
+        <v>10.42264981647949</v>
+      </c>
+      <c r="D7">
+        <v>10.96764981647949</v>
+      </c>
+      <c r="E7">
+        <v>0.545</v>
+      </c>
+      <c r="F7">
+        <v>0.545</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.71</v>
+      </c>
+      <c r="K7">
+        <v>0.889</v>
+      </c>
+      <c r="L7">
+        <v>0.821</v>
+      </c>
+      <c r="M7">
+        <v>0.008829</v>
+      </c>
+      <c r="N7">
+        <v>0.812171</v>
+      </c>
+      <c r="O7">
+        <v>0.18679933</v>
+      </c>
+      <c r="P7">
+        <v>0.6253716699999999</v>
+      </c>
+      <c r="Q7">
+        <v>1.51437167</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0402706198942671</v>
+      </c>
+      <c r="T7">
+        <v>0.5733699132440203</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.23</v>
+      </c>
+      <c r="W7">
+        <v>0.012474</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>92.98901347831011</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.03884407082725331</v>
+      </c>
+      <c r="C8">
+        <v>10.32728067193208</v>
+      </c>
+      <c r="D8">
+        <v>10.98128067193208</v>
+      </c>
+      <c r="E8">
+        <v>0.654</v>
+      </c>
+      <c r="F8">
+        <v>0.654</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.71</v>
+      </c>
+      <c r="K8">
+        <v>0.889</v>
+      </c>
+      <c r="L8">
+        <v>0.821</v>
+      </c>
+      <c r="M8">
+        <v>0.0105948</v>
+      </c>
+      <c r="N8">
+        <v>0.8104051999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.186393196</v>
+      </c>
+      <c r="P8">
+        <v>0.6240120039999999</v>
+      </c>
+      <c r="Q8">
+        <v>1.513012004</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04052726683750352</v>
+      </c>
+      <c r="T8">
+        <v>0.5781213078263757</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.23</v>
+      </c>
+      <c r="W8">
+        <v>0.012474</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>77.49084456525843</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.03880735275495287</v>
+      </c>
+      <c r="C9">
+        <v>10.23194545104703</v>
+      </c>
+      <c r="D9">
+        <v>10.99494545104703</v>
+      </c>
+      <c r="E9">
+        <v>0.7630000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.7630000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.71</v>
+      </c>
+      <c r="K9">
+        <v>0.889</v>
+      </c>
+      <c r="L9">
+        <v>0.821</v>
+      </c>
+      <c r="M9">
+        <v>0.0123606</v>
+      </c>
+      <c r="N9">
+        <v>0.8086393999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.185987062</v>
+      </c>
+      <c r="P9">
+        <v>0.622652338</v>
+      </c>
+      <c r="Q9">
+        <v>1.511652338</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.0407894330698418</v>
+      </c>
+      <c r="T9">
+        <v>0.5829748829373841</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.23</v>
+      </c>
+      <c r="W9">
+        <v>0.012474</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>66.42072391307863</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.03877063468265245</v>
+      </c>
+      <c r="C10">
+        <v>10.13664428062291</v>
+      </c>
+      <c r="D10">
+        <v>11.00864428062291</v>
+      </c>
+      <c r="E10">
+        <v>0.872</v>
+      </c>
+      <c r="F10">
+        <v>0.872</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.71</v>
+      </c>
+      <c r="K10">
+        <v>0.889</v>
+      </c>
+      <c r="L10">
+        <v>0.821</v>
+      </c>
+      <c r="M10">
+        <v>0.0141264</v>
+      </c>
+      <c r="N10">
+        <v>0.8068736</v>
+      </c>
+      <c r="O10">
+        <v>0.185580928</v>
+      </c>
+      <c r="P10">
+        <v>0.6212926719999999</v>
+      </c>
+      <c r="Q10">
+        <v>1.510292672</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04105729856810049</v>
+      </c>
+      <c r="T10">
+        <v>0.5879339705508058</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.23</v>
+      </c>
+      <c r="W10">
+        <v>0.012474</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>58.11813342394382</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.03873391661035202</v>
+      </c>
+      <c r="C11">
+        <v>10.04137728809102</v>
+      </c>
+      <c r="D11">
+        <v>11.02237728809102</v>
+      </c>
+      <c r="E11">
+        <v>0.981</v>
+      </c>
+      <c r="F11">
+        <v>0.981</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>10.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.71</v>
+      </c>
+      <c r="K11">
+        <v>0.889</v>
+      </c>
+      <c r="L11">
+        <v>0.821</v>
+      </c>
+      <c r="M11">
+        <v>0.0158922</v>
+      </c>
+      <c r="N11">
+        <v>0.8051077999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.185174794</v>
+      </c>
+      <c r="P11">
+        <v>0.6199330059999999</v>
+      </c>
+      <c r="Q11">
+        <v>1.508933006</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04133105122016706</v>
+      </c>
+      <c r="T11">
+        <v>0.5930020491007861</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.23</v>
+      </c>
+      <c r="W11">
+        <v>0.012474</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>51.66056304350562</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.03869719853805161</v>
+      </c>
+      <c r="C12">
+        <v>9.946144601519295</v>
+      </c>
+      <c r="D12">
+        <v>11.03614460151929</v>
+      </c>
+      <c r="E12">
+        <v>1.09</v>
+      </c>
+      <c r="F12">
+        <v>1.09</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>10.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.71</v>
+      </c>
+      <c r="K12">
+        <v>0.889</v>
+      </c>
+      <c r="L12">
+        <v>0.821</v>
+      </c>
+      <c r="M12">
+        <v>0.017658</v>
+      </c>
+      <c r="N12">
+        <v>0.803342</v>
+      </c>
+      <c r="O12">
+        <v>0.18476866</v>
+      </c>
+      <c r="P12">
+        <v>0.61857334</v>
+      </c>
+      <c r="Q12">
+        <v>1.50757334</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04161088726450178</v>
+      </c>
+      <c r="T12">
+        <v>0.5981827516185437</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.23</v>
+      </c>
+      <c r="W12">
+        <v>0.012474</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>46.49450673915506</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.03866048046575117</v>
+      </c>
+      <c r="C13">
+        <v>9.850946349616343</v>
+      </c>
+      <c r="D13">
+        <v>11.04994634961634</v>
+      </c>
+      <c r="E13">
+        <v>1.199</v>
+      </c>
+      <c r="F13">
+        <v>1.199</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>10.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.71</v>
+      </c>
+      <c r="K13">
+        <v>0.889</v>
+      </c>
+      <c r="L13">
+        <v>0.821</v>
+      </c>
+      <c r="M13">
+        <v>0.0194238</v>
+      </c>
+      <c r="N13">
+        <v>0.8015762</v>
+      </c>
+      <c r="O13">
+        <v>0.184362526</v>
+      </c>
+      <c r="P13">
+        <v>0.6172136739999999</v>
+      </c>
+      <c r="Q13">
+        <v>1.506213674</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.04189701175927098</v>
+      </c>
+      <c r="T13">
+        <v>0.6034798744175993</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.23</v>
+      </c>
+      <c r="W13">
+        <v>0.012474</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>42.26773339923187</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.03862376239345074</v>
+      </c>
+      <c r="C14">
+        <v>9.75578266173541</v>
+      </c>
+      <c r="D14">
+        <v>11.06378266173541</v>
+      </c>
+      <c r="E14">
+        <v>1.308</v>
+      </c>
+      <c r="F14">
+        <v>1.308</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>10.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.71</v>
+      </c>
+      <c r="K14">
+        <v>0.889</v>
+      </c>
+      <c r="L14">
+        <v>0.821</v>
+      </c>
+      <c r="M14">
+        <v>0.0211896</v>
+      </c>
+      <c r="N14">
+        <v>0.7998103999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.183956392</v>
+      </c>
+      <c r="P14">
+        <v>0.6158540079999999</v>
+      </c>
+      <c r="Q14">
+        <v>1.504854008</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.04218963908346675</v>
+      </c>
+      <c r="T14">
+        <v>0.6088973863711789</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.23</v>
+      </c>
+      <c r="W14">
+        <v>0.012474</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>38.74542228262921</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0385870443211503</v>
+      </c>
+      <c r="C15">
+        <v>9.660653667878442</v>
+      </c>
+      <c r="D15">
+        <v>11.07765366787844</v>
+      </c>
+      <c r="E15">
+        <v>1.417</v>
+      </c>
+      <c r="F15">
+        <v>1.417</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.71</v>
+      </c>
+      <c r="K15">
+        <v>0.889</v>
+      </c>
+      <c r="L15">
+        <v>0.821</v>
+      </c>
+      <c r="M15">
+        <v>0.0229554</v>
+      </c>
+      <c r="N15">
+        <v>0.7980446</v>
+      </c>
+      <c r="O15">
+        <v>0.183550258</v>
+      </c>
+      <c r="P15">
+        <v>0.614494342</v>
+      </c>
+      <c r="Q15">
+        <v>1.503494342</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.04248899347258656</v>
+      </c>
+      <c r="T15">
+        <v>0.6144394388294383</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.23</v>
+      </c>
+      <c r="W15">
+        <v>0.012474</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>35.76500518396543</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.03855032624884989</v>
+      </c>
+      <c r="C16">
+        <v>9.565559498700143</v>
+      </c>
+      <c r="D16">
+        <v>11.09155949870014</v>
+      </c>
+      <c r="E16">
+        <v>1.526</v>
+      </c>
+      <c r="F16">
+        <v>1.526</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>10.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.71</v>
+      </c>
+      <c r="K16">
+        <v>0.889</v>
+      </c>
+      <c r="L16">
+        <v>0.821</v>
+      </c>
+      <c r="M16">
+        <v>0.0247212</v>
+      </c>
+      <c r="N16">
+        <v>0.7962788</v>
+      </c>
+      <c r="O16">
+        <v>0.183144124</v>
+      </c>
+      <c r="P16">
+        <v>0.6131346759999999</v>
+      </c>
+      <c r="Q16">
+        <v>1.502134676</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.04279530959168591</v>
+      </c>
+      <c r="T16">
+        <v>0.6201103762285877</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.23</v>
+      </c>
+      <c r="W16">
+        <v>0.012474</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>33.21036195653932</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.03851360817654945</v>
+      </c>
+      <c r="C17">
+        <v>9.470500285512118</v>
+      </c>
+      <c r="D17">
+        <v>11.10550028551212</v>
+      </c>
+      <c r="E17">
+        <v>1.635</v>
+      </c>
+      <c r="F17">
+        <v>1.635</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>10.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.71</v>
+      </c>
+      <c r="K17">
+        <v>0.889</v>
+      </c>
+      <c r="L17">
+        <v>0.821</v>
+      </c>
+      <c r="M17">
+        <v>0.026487</v>
+      </c>
+      <c r="N17">
+        <v>0.7945129999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.18273799</v>
+      </c>
+      <c r="P17">
+        <v>0.6117750099999999</v>
+      </c>
+      <c r="Q17">
+        <v>1.50077501</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.04310883314888171</v>
+      </c>
+      <c r="T17">
+        <v>0.6259147474488935</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.23</v>
+      </c>
+      <c r="W17">
+        <v>0.012474</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>30.99633782610337</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.03847689010424903</v>
+      </c>
+      <c r="C18">
+        <v>9.375476160286944</v>
+      </c>
+      <c r="D18">
+        <v>11.11947616028694</v>
+      </c>
+      <c r="E18">
+        <v>1.744</v>
+      </c>
+      <c r="F18">
+        <v>1.744</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>10.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.71</v>
+      </c>
+      <c r="K18">
+        <v>0.889</v>
+      </c>
+      <c r="L18">
+        <v>0.821</v>
+      </c>
+      <c r="M18">
+        <v>0.0282528</v>
+      </c>
+      <c r="N18">
+        <v>0.7927472</v>
+      </c>
+      <c r="O18">
+        <v>0.182331856</v>
+      </c>
+      <c r="P18">
+        <v>0.610415344</v>
+      </c>
+      <c r="Q18">
+        <v>1.499415344</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.04342982155267741</v>
+      </c>
+      <c r="T18">
+        <v>0.6318573179839684</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.23</v>
+      </c>
+      <c r="W18">
+        <v>0.012474</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>29.05906671197191</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.03844017203194859</v>
+      </c>
+      <c r="C19">
+        <v>9.280487255662386</v>
+      </c>
+      <c r="D19">
+        <v>11.13348725566239</v>
+      </c>
+      <c r="E19">
+        <v>1.853</v>
+      </c>
+      <c r="F19">
+        <v>1.853</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.71</v>
+      </c>
+      <c r="K19">
+        <v>0.889</v>
+      </c>
+      <c r="L19">
+        <v>0.821</v>
+      </c>
+      <c r="M19">
+        <v>0.0300186</v>
+      </c>
+      <c r="N19">
+        <v>0.7909813999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.181925722</v>
+      </c>
+      <c r="P19">
+        <v>0.6090556779999999</v>
+      </c>
+      <c r="Q19">
+        <v>1.498055678</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.04375854461680553</v>
+      </c>
+      <c r="T19">
+        <v>0.637943082989768</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.23</v>
+      </c>
+      <c r="W19">
+        <v>0.012474</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>27.34970984656179</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.03840345395964818</v>
+      </c>
+      <c r="C20">
+        <v>9.18553370494555</v>
+      </c>
+      <c r="D20">
+        <v>11.14753370494555</v>
+      </c>
+      <c r="E20">
+        <v>1.962</v>
+      </c>
+      <c r="F20">
+        <v>1.962</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>10.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.71</v>
+      </c>
+      <c r="K20">
+        <v>0.889</v>
+      </c>
+      <c r="L20">
+        <v>0.821</v>
+      </c>
+      <c r="M20">
+        <v>0.0317844</v>
+      </c>
+      <c r="N20">
+        <v>0.7892155999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.181519588</v>
+      </c>
+      <c r="P20">
+        <v>0.6076960119999999</v>
+      </c>
+      <c r="Q20">
+        <v>1.496696012</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.04409528531664411</v>
+      </c>
+      <c r="T20">
+        <v>0.644177281288392</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.23</v>
+      </c>
+      <c r="W20">
+        <v>0.012474</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>25.83028152175281</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.03836673588734774</v>
+      </c>
+      <c r="C21">
+        <v>9.090615642117173</v>
+      </c>
+      <c r="D21">
+        <v>11.16161564211717</v>
+      </c>
+      <c r="E21">
+        <v>2.071</v>
+      </c>
+      <c r="F21">
+        <v>2.071</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>10.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.71</v>
+      </c>
+      <c r="K21">
+        <v>0.889</v>
+      </c>
+      <c r="L21">
+        <v>0.821</v>
+      </c>
+      <c r="M21">
+        <v>0.0335502</v>
+      </c>
+      <c r="N21">
+        <v>0.7874498</v>
+      </c>
+      <c r="O21">
+        <v>0.181113454</v>
+      </c>
+      <c r="P21">
+        <v>0.606336346</v>
+      </c>
+      <c r="Q21">
+        <v>1.495336346</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.04444034060166388</v>
+      </c>
+      <c r="T21">
+        <v>0.6505654104092043</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.23</v>
+      </c>
+      <c r="W21">
+        <v>0.012474</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>24.47079302060792</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.03833001781504732</v>
+      </c>
+      <c r="C22">
+        <v>8.995733201835803</v>
+      </c>
+      <c r="D22">
+        <v>11.1757332018358</v>
+      </c>
+      <c r="E22">
+        <v>2.18</v>
+      </c>
+      <c r="F22">
+        <v>2.18</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.71</v>
+      </c>
+      <c r="K22">
+        <v>0.889</v>
+      </c>
+      <c r="L22">
+        <v>0.821</v>
+      </c>
+      <c r="M22">
+        <v>0.035316</v>
+      </c>
+      <c r="N22">
+        <v>0.7856839999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.18070732</v>
+      </c>
+      <c r="P22">
+        <v>0.6049766799999999</v>
+      </c>
+      <c r="Q22">
+        <v>1.49397668</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.04479402226880914</v>
+      </c>
+      <c r="T22">
+        <v>0.6571132427580368</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.23</v>
+      </c>
+      <c r="W22">
+        <v>0.012474</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>23.24725336957753</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.03829329974274687</v>
+      </c>
+      <c r="C23">
+        <v>8.900886519442162</v>
+      </c>
+      <c r="D23">
+        <v>11.18988651944216</v>
+      </c>
+      <c r="E23">
+        <v>2.289</v>
+      </c>
+      <c r="F23">
+        <v>2.289</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>10.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.71</v>
+      </c>
+      <c r="K23">
+        <v>0.889</v>
+      </c>
+      <c r="L23">
+        <v>0.821</v>
+      </c>
+      <c r="M23">
+        <v>0.0370818</v>
+      </c>
+      <c r="N23">
+        <v>0.7839182</v>
+      </c>
+      <c r="O23">
+        <v>0.180301186</v>
+      </c>
+      <c r="P23">
+        <v>0.603617014</v>
+      </c>
+      <c r="Q23">
+        <v>1.492617014</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.04515665790221124</v>
+      </c>
+      <c r="T23">
+        <v>0.6638268430144348</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.23</v>
+      </c>
+      <c r="W23">
+        <v>0.012474</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>22.14024130435955</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.03825658167044646</v>
+      </c>
+      <c r="C24">
+        <v>8.806075730963411</v>
+      </c>
+      <c r="D24">
+        <v>11.20407573096341</v>
+      </c>
+      <c r="E24">
+        <v>2.398</v>
+      </c>
+      <c r="F24">
+        <v>2.398</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>10.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.71</v>
+      </c>
+      <c r="K24">
+        <v>0.889</v>
+      </c>
+      <c r="L24">
+        <v>0.821</v>
+      </c>
+      <c r="M24">
+        <v>0.0388476</v>
+      </c>
+      <c r="N24">
+        <v>0.7821524</v>
+      </c>
+      <c r="O24">
+        <v>0.179895052</v>
+      </c>
+      <c r="P24">
+        <v>0.602257348</v>
+      </c>
+      <c r="Q24">
+        <v>1.491257348</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.04552859188518776</v>
+      </c>
+      <c r="T24">
+        <v>0.6707125868671507</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.23</v>
+      </c>
+      <c r="W24">
+        <v>0.012474</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>21.13386669961593</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.03821986359814603</v>
+      </c>
+      <c r="C25">
+        <v>8.711300973117577</v>
+      </c>
+      <c r="D25">
+        <v>11.21830097311758</v>
+      </c>
+      <c r="E25">
+        <v>2.507</v>
+      </c>
+      <c r="F25">
+        <v>2.507</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>10.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.71</v>
+      </c>
+      <c r="K25">
+        <v>0.889</v>
+      </c>
+      <c r="L25">
+        <v>0.821</v>
+      </c>
+      <c r="M25">
+        <v>0.0406134</v>
+      </c>
+      <c r="N25">
+        <v>0.7803865999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.179488918</v>
+      </c>
+      <c r="P25">
+        <v>0.6008976819999999</v>
+      </c>
+      <c r="Q25">
+        <v>1.489897682</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.04591018649109874</v>
+      </c>
+      <c r="T25">
+        <v>0.6777771812095474</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.23</v>
+      </c>
+      <c r="W25">
+        <v>0.012474</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>20.21500293006741</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.0381831455258456</v>
+      </c>
+      <c r="C26">
+        <v>8.61656238331787</v>
+      </c>
+      <c r="D26">
+        <v>11.23256238331787</v>
+      </c>
+      <c r="E26">
+        <v>2.616</v>
+      </c>
+      <c r="F26">
+        <v>2.616</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>10.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.71</v>
+      </c>
+      <c r="K26">
+        <v>0.889</v>
+      </c>
+      <c r="L26">
+        <v>0.821</v>
+      </c>
+      <c r="M26">
+        <v>0.0423792</v>
+      </c>
+      <c r="N26">
+        <v>0.7786208</v>
+      </c>
+      <c r="O26">
+        <v>0.179082784</v>
+      </c>
+      <c r="P26">
+        <v>0.599538016</v>
+      </c>
+      <c r="Q26">
+        <v>1.488538016</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.04630182306032316</v>
+      </c>
+      <c r="T26">
+        <v>0.6850276859293757</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.23</v>
+      </c>
+      <c r="W26">
+        <v>0.012474</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>19.37271114131461</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.03814642745354516</v>
+      </c>
+      <c r="C27">
+        <v>8.52186009967717</v>
+      </c>
+      <c r="D27">
+        <v>11.24686009967717</v>
+      </c>
+      <c r="E27">
+        <v>2.725</v>
+      </c>
+      <c r="F27">
+        <v>2.725</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>10.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.71</v>
+      </c>
+      <c r="K27">
+        <v>0.889</v>
+      </c>
+      <c r="L27">
+        <v>0.821</v>
+      </c>
+      <c r="M27">
+        <v>0.044145</v>
+      </c>
+      <c r="N27">
+        <v>0.776855</v>
+      </c>
+      <c r="O27">
+        <v>0.17867665</v>
+      </c>
+      <c r="P27">
+        <v>0.59817835</v>
+      </c>
+      <c r="Q27">
+        <v>1.48717835</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.04670390327139355</v>
+      </c>
+      <c r="T27">
+        <v>0.6924715374417327</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.23</v>
+      </c>
+      <c r="W27">
+        <v>0.012474</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>18.59780269566202</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.03810970938124474</v>
+      </c>
+      <c r="C28">
+        <v>8.427194261012426</v>
+      </c>
+      <c r="D28">
+        <v>11.26119426101243</v>
+      </c>
+      <c r="E28">
+        <v>2.834</v>
+      </c>
+      <c r="F28">
+        <v>2.834</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>10.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.71</v>
+      </c>
+      <c r="K28">
+        <v>0.889</v>
+      </c>
+      <c r="L28">
+        <v>0.821</v>
+      </c>
+      <c r="M28">
+        <v>0.0459108</v>
+      </c>
+      <c r="N28">
+        <v>0.7750891999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.178270516</v>
+      </c>
+      <c r="P28">
+        <v>0.5968186839999999</v>
+      </c>
+      <c r="Q28">
+        <v>1.485818684</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0471168505151956</v>
+      </c>
+      <c r="T28">
+        <v>0.7001165741300995</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.23</v>
+      </c>
+      <c r="W28">
+        <v>0.012474</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>17.88250259198271</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.03807299130894431</v>
+      </c>
+      <c r="C29">
+        <v>8.332565006849219</v>
+      </c>
+      <c r="D29">
+        <v>11.27556500684922</v>
+      </c>
+      <c r="E29">
+        <v>2.943000000000001</v>
+      </c>
+      <c r="F29">
+        <v>2.943000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>10.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.71</v>
+      </c>
+      <c r="K29">
+        <v>0.889</v>
+      </c>
+      <c r="L29">
+        <v>0.821</v>
+      </c>
+      <c r="M29">
+        <v>0.04767660000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.7733234</v>
+      </c>
+      <c r="O29">
+        <v>0.177864382</v>
+      </c>
+      <c r="P29">
+        <v>0.595459018</v>
+      </c>
+      <c r="Q29">
+        <v>1.484459018</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.04754111138211549</v>
+      </c>
+      <c r="T29">
+        <v>0.7079710638784213</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.23</v>
+      </c>
+      <c r="W29">
+        <v>0.012474</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>17.22018768116854</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.03803627323664388</v>
+      </c>
+      <c r="C30">
+        <v>8.237972477426222</v>
+      </c>
+      <c r="D30">
+        <v>11.28997247742622</v>
+      </c>
+      <c r="E30">
+        <v>3.052</v>
+      </c>
+      <c r="F30">
+        <v>3.052</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>10.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.71</v>
+      </c>
+      <c r="K30">
+        <v>0.889</v>
+      </c>
+      <c r="L30">
+        <v>0.821</v>
+      </c>
+      <c r="M30">
+        <v>0.0494424</v>
+      </c>
+      <c r="N30">
+        <v>0.7715576</v>
+      </c>
+      <c r="O30">
+        <v>0.177458248</v>
+      </c>
+      <c r="P30">
+        <v>0.594099352</v>
+      </c>
+      <c r="Q30">
+        <v>1.483099352</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.04797715727311651</v>
+      </c>
+      <c r="T30">
+        <v>0.7160437338975302</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.23</v>
+      </c>
+      <c r="W30">
+        <v>0.012474</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>16.60518097826966</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.03799955516434345</v>
+      </c>
+      <c r="C31">
+        <v>8.143416813699806</v>
+      </c>
+      <c r="D31">
+        <v>11.30441681369981</v>
+      </c>
+      <c r="E31">
+        <v>3.161</v>
+      </c>
+      <c r="F31">
+        <v>3.161</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>10.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.71</v>
+      </c>
+      <c r="K31">
+        <v>0.889</v>
+      </c>
+      <c r="L31">
+        <v>0.821</v>
+      </c>
+      <c r="M31">
+        <v>0.0512082</v>
+      </c>
+      <c r="N31">
+        <v>0.7697917999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.177052114</v>
+      </c>
+      <c r="P31">
+        <v>0.5927396859999999</v>
+      </c>
+      <c r="Q31">
+        <v>1.481739686</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.04842548614696261</v>
+      </c>
+      <c r="T31">
+        <v>0.7243438030721067</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.23</v>
+      </c>
+      <c r="W31">
+        <v>0.012474</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>16.03258853074312</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.03796283709204303</v>
+      </c>
+      <c r="C32">
+        <v>8.048898157348605</v>
+      </c>
+      <c r="D32">
+        <v>11.3188981573486</v>
+      </c>
+      <c r="E32">
+        <v>3.27</v>
+      </c>
+      <c r="F32">
+        <v>3.27</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.71</v>
+      </c>
+      <c r="K32">
+        <v>0.889</v>
+      </c>
+      <c r="L32">
+        <v>0.821</v>
+      </c>
+      <c r="M32">
+        <v>0.052974</v>
+      </c>
+      <c r="N32">
+        <v>0.768026</v>
+      </c>
+      <c r="O32">
+        <v>0.17664598</v>
+      </c>
+      <c r="P32">
+        <v>0.59138002</v>
+      </c>
+      <c r="Q32">
+        <v>1.48038002</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.04888662441720433</v>
+      </c>
+      <c r="T32">
+        <v>0.7328810170802424</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.23</v>
+      </c>
+      <c r="W32">
+        <v>0.012474</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>15.49816891305169</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.0379261190197426</v>
+      </c>
+      <c r="C33">
+        <v>7.954416650778196</v>
+      </c>
+      <c r="D33">
+        <v>11.3334166507782</v>
+      </c>
+      <c r="E33">
+        <v>3.379</v>
+      </c>
+      <c r="F33">
+        <v>3.379</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>10.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.71</v>
+      </c>
+      <c r="K33">
+        <v>0.889</v>
+      </c>
+      <c r="L33">
+        <v>0.821</v>
+      </c>
+      <c r="M33">
+        <v>0.0547398</v>
+      </c>
+      <c r="N33">
+        <v>0.7662601999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.176239846</v>
+      </c>
+      <c r="P33">
+        <v>0.590020354</v>
+      </c>
+      <c r="Q33">
+        <v>1.479020354</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.04936112901411971</v>
+      </c>
+      <c r="T33">
+        <v>0.7416656865668749</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.23</v>
+      </c>
+      <c r="W33">
+        <v>0.012474</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>14.9982279803726</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.03788940094744216</v>
+      </c>
+      <c r="C34">
+        <v>7.859972437125702</v>
+      </c>
+      <c r="D34">
+        <v>11.3479724371257</v>
+      </c>
+      <c r="E34">
+        <v>3.488</v>
+      </c>
+      <c r="F34">
+        <v>3.488</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.71</v>
+      </c>
+      <c r="K34">
+        <v>0.889</v>
+      </c>
+      <c r="L34">
+        <v>0.821</v>
+      </c>
+      <c r="M34">
+        <v>0.0565056</v>
+      </c>
+      <c r="N34">
+        <v>0.7644943999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.175833712</v>
+      </c>
+      <c r="P34">
+        <v>0.5886606879999999</v>
+      </c>
+      <c r="Q34">
+        <v>1.477660688</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.04984958962859143</v>
+      </c>
+      <c r="T34">
+        <v>0.7507087286854672</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.23</v>
+      </c>
+      <c r="W34">
+        <v>0.012474</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>14.52953335598595</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.03785268287514174</v>
+      </c>
+      <c r="C35">
+        <v>7.765565660264548</v>
+      </c>
+      <c r="D35">
+        <v>11.36256566026455</v>
+      </c>
+      <c r="E35">
+        <v>3.597</v>
+      </c>
+      <c r="F35">
+        <v>3.597</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>10.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.71</v>
+      </c>
+      <c r="K35">
+        <v>0.889</v>
+      </c>
+      <c r="L35">
+        <v>0.821</v>
+      </c>
+      <c r="M35">
+        <v>0.0582714</v>
+      </c>
+      <c r="N35">
+        <v>0.7627286</v>
+      </c>
+      <c r="O35">
+        <v>0.175427578</v>
+      </c>
+      <c r="P35">
+        <v>0.587301022</v>
+      </c>
+      <c r="Q35">
+        <v>1.476301022</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.05035263115692797</v>
+      </c>
+      <c r="T35">
+        <v>0.7600217123598384</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.23</v>
+      </c>
+      <c r="W35">
+        <v>0.012474</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>14.08924446641062</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.03823484480284131</v>
+      </c>
+      <c r="C36">
+        <v>7.506492624589813</v>
+      </c>
+      <c r="D36">
+        <v>11.21249262458981</v>
+      </c>
+      <c r="E36">
+        <v>3.706</v>
+      </c>
+      <c r="F36">
+        <v>3.706</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>10.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.71</v>
+      </c>
+      <c r="K36">
+        <v>0.889</v>
+      </c>
+      <c r="L36">
+        <v>0.821</v>
+      </c>
+      <c r="M36">
+        <v>0.06596680000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.7550332</v>
+      </c>
+      <c r="O36">
+        <v>0.173657636</v>
+      </c>
+      <c r="P36">
+        <v>0.581375564</v>
+      </c>
+      <c r="Q36">
+        <v>1.470375564</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.05087091636794139</v>
+      </c>
+      <c r="T36">
+        <v>0.7696169076607057</v>
+      </c>
+      <c r="U36">
+        <v>0.0178</v>
+      </c>
+      <c r="V36">
+        <v>0.23</v>
+      </c>
+      <c r="W36">
+        <v>0.013706</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>12.44565448073879</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.03821044673054088</v>
+      </c>
+      <c r="C37">
+        <v>7.406955058991902</v>
+      </c>
+      <c r="D37">
+        <v>11.2219550589919</v>
+      </c>
+      <c r="E37">
+        <v>3.815</v>
+      </c>
+      <c r="F37">
+        <v>3.815</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>10.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.71</v>
+      </c>
+      <c r="K37">
+        <v>0.889</v>
+      </c>
+      <c r="L37">
+        <v>0.821</v>
+      </c>
+      <c r="M37">
+        <v>0.06790700000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.7530929999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.17321139</v>
+      </c>
+      <c r="P37">
+        <v>0.5798816099999999</v>
+      </c>
+      <c r="Q37">
+        <v>1.46888161</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.05140514881621674</v>
+      </c>
+      <c r="T37">
+        <v>0.7795073397400611</v>
+      </c>
+      <c r="U37">
+        <v>0.0178</v>
+      </c>
+      <c r="V37">
+        <v>0.23</v>
+      </c>
+      <c r="W37">
+        <v>0.013706</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>12.09006435271768</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.03818604865824046</v>
+      </c>
+      <c r="C38">
+        <v>7.307433477938043</v>
+      </c>
+      <c r="D38">
+        <v>11.23143347793804</v>
+      </c>
+      <c r="E38">
+        <v>3.924</v>
+      </c>
+      <c r="F38">
+        <v>3.924</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>10.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.71</v>
+      </c>
+      <c r="K38">
+        <v>0.889</v>
+      </c>
+      <c r="L38">
+        <v>0.821</v>
+      </c>
+      <c r="M38">
+        <v>0.0698472</v>
+      </c>
+      <c r="N38">
+        <v>0.7511528</v>
+      </c>
+      <c r="O38">
+        <v>0.172765144</v>
+      </c>
+      <c r="P38">
+        <v>0.578387656</v>
+      </c>
+      <c r="Q38">
+        <v>1.467387656</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.05195607602850071</v>
+      </c>
+      <c r="T38">
+        <v>0.7897068478218965</v>
+      </c>
+      <c r="U38">
+        <v>0.0178</v>
+      </c>
+      <c r="V38">
+        <v>0.23</v>
+      </c>
+      <c r="W38">
+        <v>0.013706</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>11.75422923180886</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.03816165058594003</v>
+      </c>
+      <c r="C39">
+        <v>7.207927921965635</v>
+      </c>
+      <c r="D39">
+        <v>11.24092792196564</v>
+      </c>
+      <c r="E39">
+        <v>4.033</v>
+      </c>
+      <c r="F39">
+        <v>4.033</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>10.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.71</v>
+      </c>
+      <c r="K39">
+        <v>0.889</v>
+      </c>
+      <c r="L39">
+        <v>0.821</v>
+      </c>
+      <c r="M39">
+        <v>0.0717874</v>
+      </c>
+      <c r="N39">
+        <v>0.7492125999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.172318898</v>
+      </c>
+      <c r="P39">
+        <v>0.5768937019999999</v>
+      </c>
+      <c r="Q39">
+        <v>1.465893702</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0525244929935556</v>
+      </c>
+      <c r="T39">
+        <v>0.8002301498110918</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.23</v>
+      </c>
+      <c r="W39">
+        <v>0.013706</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>11.43654736067889</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.0381372525136396</v>
+      </c>
+      <c r="C40">
+        <v>7.108438431749266</v>
+      </c>
+      <c r="D40">
+        <v>11.25043843174927</v>
+      </c>
+      <c r="E40">
+        <v>4.142</v>
+      </c>
+      <c r="F40">
+        <v>4.142</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>10.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.71</v>
+      </c>
+      <c r="K40">
+        <v>0.889</v>
+      </c>
+      <c r="L40">
+        <v>0.821</v>
+      </c>
+      <c r="M40">
+        <v>0.0737276</v>
+      </c>
+      <c r="N40">
+        <v>0.7472723999999999</v>
+      </c>
+      <c r="O40">
+        <v>0.171872652</v>
+      </c>
+      <c r="P40">
+        <v>0.5753997479999999</v>
+      </c>
+      <c r="Q40">
+        <v>1.464399748</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.05311124598974129</v>
+      </c>
+      <c r="T40">
+        <v>0.8110929131547772</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.23</v>
+      </c>
+      <c r="W40">
+        <v>0.013706</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>11.13558558802945</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.03811285444133917</v>
+      </c>
+      <c r="C41">
+        <v>7.008965048101291</v>
+      </c>
+      <c r="D41">
+        <v>11.25996504810129</v>
+      </c>
+      <c r="E41">
+        <v>4.251</v>
+      </c>
+      <c r="F41">
+        <v>4.251</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>10.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.71</v>
+      </c>
+      <c r="K41">
+        <v>0.889</v>
+      </c>
+      <c r="L41">
+        <v>0.821</v>
+      </c>
+      <c r="M41">
+        <v>0.07566780000000001</v>
+      </c>
+      <c r="N41">
+        <v>0.7453322</v>
+      </c>
+      <c r="O41">
+        <v>0.171426406</v>
+      </c>
+      <c r="P41">
+        <v>0.573905794</v>
+      </c>
+      <c r="Q41">
+        <v>1.462905794</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.05371723678908061</v>
+      </c>
+      <c r="T41">
+        <v>0.8223118326736654</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.23</v>
+      </c>
+      <c r="W41">
+        <v>0.013706</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>10.85005775243895</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.03876605636903874</v>
+      </c>
+      <c r="C42">
+        <v>6.650354758107487</v>
+      </c>
+      <c r="D42">
+        <v>11.01035475810749</v>
+      </c>
+      <c r="E42">
+        <v>4.36</v>
+      </c>
+      <c r="F42">
+        <v>4.36</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>10.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.71</v>
+      </c>
+      <c r="K42">
+        <v>0.889</v>
+      </c>
+      <c r="L42">
+        <v>0.821</v>
+      </c>
+      <c r="M42">
+        <v>0.0872</v>
+      </c>
+      <c r="N42">
+        <v>0.7338</v>
+      </c>
+      <c r="O42">
+        <v>0.168774</v>
+      </c>
+      <c r="P42">
+        <v>0.565026</v>
+      </c>
+      <c r="Q42">
+        <v>1.454026</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.05434342728173124</v>
+      </c>
+      <c r="T42">
+        <v>0.8339047161765165</v>
+      </c>
+      <c r="U42">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0.23</v>
+      </c>
+      <c r="W42">
+        <v>0.0154</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>9.415137614678899</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.03875859829673831</v>
+      </c>
+      <c r="C43">
+        <v>6.54414226418677</v>
+      </c>
+      <c r="D43">
+        <v>11.01314226418677</v>
+      </c>
+      <c r="E43">
+        <v>4.469</v>
+      </c>
+      <c r="F43">
+        <v>4.469</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>10.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.71</v>
+      </c>
+      <c r="K43">
+        <v>0.889</v>
+      </c>
+      <c r="L43">
+        <v>0.821</v>
+      </c>
+      <c r="M43">
+        <v>0.08937999999999999</v>
+      </c>
+      <c r="N43">
+        <v>0.7316199999999999</v>
+      </c>
+      <c r="O43">
+        <v>0.1682726</v>
+      </c>
+      <c r="P43">
+        <v>0.5633473999999999</v>
+      </c>
+      <c r="Q43">
+        <v>1.4523474</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.05499084457074291</v>
+      </c>
+      <c r="T43">
+        <v>0.8458905787811591</v>
+      </c>
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0.23</v>
+      </c>
+      <c r="W43">
+        <v>0.0154</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>9.185500111881852</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.03875114022443789</v>
+      </c>
+      <c r="C44">
+        <v>6.437931182056681</v>
+      </c>
+      <c r="D44">
+        <v>11.01593118205668</v>
+      </c>
+      <c r="E44">
+        <v>4.578</v>
+      </c>
+      <c r="F44">
+        <v>4.578</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>10.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.71</v>
+      </c>
+      <c r="K44">
+        <v>0.889</v>
+      </c>
+      <c r="L44">
+        <v>0.821</v>
+      </c>
+      <c r="M44">
+        <v>0.09155999999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.72944</v>
+      </c>
+      <c r="O44">
+        <v>0.1677712</v>
+      </c>
+      <c r="P44">
+        <v>0.5616688</v>
+      </c>
+      <c r="Q44">
+        <v>1.4506688</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.05566058659385842</v>
+      </c>
+      <c r="T44">
+        <v>0.8582897469928583</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.23</v>
+      </c>
+      <c r="W44">
+        <v>0.0154</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>8.966797728265618</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.03874368215213746</v>
+      </c>
+      <c r="C45">
+        <v>6.331721512790037</v>
+      </c>
+      <c r="D45">
+        <v>11.01872151279004</v>
+      </c>
+      <c r="E45">
+        <v>4.687</v>
+      </c>
+      <c r="F45">
+        <v>4.687</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>10.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.71</v>
+      </c>
+      <c r="K45">
+        <v>0.889</v>
+      </c>
+      <c r="L45">
+        <v>0.821</v>
+      </c>
+      <c r="M45">
+        <v>0.09373999999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.72726</v>
+      </c>
+      <c r="O45">
+        <v>0.1672698</v>
+      </c>
+      <c r="P45">
+        <v>0.5599902</v>
+      </c>
+      <c r="Q45">
+        <v>1.4489902</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.05635382833708326</v>
+      </c>
+      <c r="T45">
+        <v>0.8711239737383015</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.23</v>
+      </c>
+      <c r="W45">
+        <v>0.0154</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>8.758267548538512</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.03873622407983703</v>
+      </c>
+      <c r="C46">
+        <v>6.22551325746075</v>
+      </c>
+      <c r="D46">
+        <v>11.02151325746075</v>
+      </c>
+      <c r="E46">
+        <v>4.796</v>
+      </c>
+      <c r="F46">
+        <v>4.796</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>10.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.71</v>
+      </c>
+      <c r="K46">
+        <v>0.889</v>
+      </c>
+      <c r="L46">
+        <v>0.821</v>
+      </c>
+      <c r="M46">
+        <v>0.09591999999999999</v>
+      </c>
+      <c r="N46">
+        <v>0.7250799999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.1667684</v>
+      </c>
+      <c r="P46">
+        <v>0.5583115999999999</v>
+      </c>
+      <c r="Q46">
+        <v>1.4473116</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.05707182871399469</v>
+      </c>
+      <c r="T46">
+        <v>0.8844165657246534</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.23</v>
+      </c>
+      <c r="W46">
+        <v>0.0154</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>8.559216013344454</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.03872876600753659</v>
+      </c>
+      <c r="C47">
+        <v>6.119306417143803</v>
+      </c>
+      <c r="D47">
+        <v>11.0243064171438</v>
+      </c>
+      <c r="E47">
+        <v>4.905</v>
+      </c>
+      <c r="F47">
+        <v>4.905</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>10.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.71</v>
+      </c>
+      <c r="K47">
+        <v>0.889</v>
+      </c>
+      <c r="L47">
+        <v>0.821</v>
+      </c>
+      <c r="M47">
+        <v>0.09809999999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.7229</v>
+      </c>
+      <c r="O47">
+        <v>0.166267</v>
+      </c>
+      <c r="P47">
+        <v>0.5566329999999999</v>
+      </c>
+      <c r="Q47">
+        <v>1.445633</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.05781593819552108</v>
+      </c>
+      <c r="T47">
+        <v>0.8981925246923271</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.23</v>
+      </c>
+      <c r="W47">
+        <v>0.0154</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>8.36901121304791</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.03872130793523618</v>
+      </c>
+      <c r="C48">
+        <v>6.013100992915283</v>
+      </c>
+      <c r="D48">
+        <v>11.02710099291528</v>
+      </c>
+      <c r="E48">
+        <v>5.014</v>
+      </c>
+      <c r="F48">
+        <v>5.014</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>10.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.71</v>
+      </c>
+      <c r="K48">
+        <v>0.889</v>
+      </c>
+      <c r="L48">
+        <v>0.821</v>
+      </c>
+      <c r="M48">
+        <v>0.10028</v>
+      </c>
+      <c r="N48">
+        <v>0.7207199999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.1657656</v>
+      </c>
+      <c r="P48">
+        <v>0.5549544</v>
+      </c>
+      <c r="Q48">
+        <v>1.4439544</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.05858760728747439</v>
+      </c>
+      <c r="T48">
+        <v>0.9124787043625073</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.23</v>
+      </c>
+      <c r="W48">
+        <v>0.0154</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>8.187076186677302</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.03871384986293574</v>
+      </c>
+      <c r="C49">
+        <v>5.906896985852371</v>
+      </c>
+      <c r="D49">
+        <v>11.02989698585237</v>
+      </c>
+      <c r="E49">
+        <v>5.123</v>
+      </c>
+      <c r="F49">
+        <v>5.123</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>10.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.71</v>
+      </c>
+      <c r="K49">
+        <v>0.889</v>
+      </c>
+      <c r="L49">
+        <v>0.821</v>
+      </c>
+      <c r="M49">
+        <v>0.10246</v>
+      </c>
+      <c r="N49">
+        <v>0.71854</v>
+      </c>
+      <c r="O49">
+        <v>0.1652642</v>
+      </c>
+      <c r="P49">
+        <v>0.5532758</v>
+      </c>
+      <c r="Q49">
+        <v>1.4422758</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.05938839596780328</v>
+      </c>
+      <c r="T49">
+        <v>0.9273039851523168</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.23</v>
+      </c>
+      <c r="W49">
+        <v>0.0154</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>8.012883076322467</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.03911295179063531</v>
+      </c>
+      <c r="C50">
+        <v>5.650241256211936</v>
+      </c>
+      <c r="D50">
+        <v>10.88224125621194</v>
+      </c>
+      <c r="E50">
+        <v>5.232</v>
+      </c>
+      <c r="F50">
+        <v>5.232</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>10.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.71</v>
+      </c>
+      <c r="K50">
+        <v>0.889</v>
+      </c>
+      <c r="L50">
+        <v>0.821</v>
+      </c>
+      <c r="M50">
+        <v>0.1103952</v>
+      </c>
+      <c r="N50">
+        <v>0.7106047999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.163439104</v>
+      </c>
+      <c r="P50">
+        <v>0.547165696</v>
+      </c>
+      <c r="Q50">
+        <v>1.436165696</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.06021998421276022</v>
+      </c>
+      <c r="T50">
+        <v>0.9426994690494269</v>
+      </c>
+      <c r="U50">
+        <v>0.0211</v>
+      </c>
+      <c r="V50">
+        <v>0.23</v>
+      </c>
+      <c r="W50">
+        <v>0.016247</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>7.436917547139729</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.03911396371833489</v>
+      </c>
+      <c r="C51">
+        <v>5.540871897697094</v>
+      </c>
+      <c r="D51">
+        <v>10.88187189769709</v>
+      </c>
+      <c r="E51">
+        <v>5.341</v>
+      </c>
+      <c r="F51">
+        <v>5.341</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>10.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.71</v>
+      </c>
+      <c r="K51">
+        <v>0.889</v>
+      </c>
+      <c r="L51">
+        <v>0.821</v>
+      </c>
+      <c r="M51">
+        <v>0.1126951</v>
+      </c>
+      <c r="N51">
+        <v>0.7083048999999999</v>
+      </c>
+      <c r="O51">
+        <v>0.162910127</v>
+      </c>
+      <c r="P51">
+        <v>0.5453947729999999</v>
+      </c>
+      <c r="Q51">
+        <v>1.434394773</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.06108418376144095</v>
+      </c>
+      <c r="T51">
+        <v>0.9586986974130902</v>
+      </c>
+      <c r="U51">
+        <v>0.0211</v>
+      </c>
+      <c r="V51">
+        <v>0.23</v>
+      </c>
+      <c r="W51">
+        <v>0.016247</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>7.285143719647082</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.03911497564603446</v>
+      </c>
+      <c r="C52">
+        <v>5.431502564254489</v>
+      </c>
+      <c r="D52">
+        <v>10.88150256425449</v>
+      </c>
+      <c r="E52">
+        <v>5.45</v>
+      </c>
+      <c r="F52">
+        <v>5.45</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>10.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.71</v>
+      </c>
+      <c r="K52">
+        <v>0.889</v>
+      </c>
+      <c r="L52">
+        <v>0.821</v>
+      </c>
+      <c r="M52">
+        <v>0.114995</v>
+      </c>
+      <c r="N52">
+        <v>0.706005</v>
+      </c>
+      <c r="O52">
+        <v>0.16238115</v>
+      </c>
+      <c r="P52">
+        <v>0.54362385</v>
+      </c>
+      <c r="Q52">
+        <v>1.43262385</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.06198295129206892</v>
+      </c>
+      <c r="T52">
+        <v>0.9753378949113001</v>
+      </c>
+      <c r="U52">
+        <v>0.0211</v>
+      </c>
+      <c r="V52">
+        <v>0.23</v>
+      </c>
+      <c r="W52">
+        <v>0.016247</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>7.139440845254141</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.03911598757373402</v>
+      </c>
+      <c r="C53">
+        <v>5.322133255881575</v>
+      </c>
+      <c r="D53">
+        <v>10.88113325588158</v>
+      </c>
+      <c r="E53">
+        <v>5.559</v>
+      </c>
+      <c r="F53">
+        <v>5.559</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>10.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.71</v>
+      </c>
+      <c r="K53">
+        <v>0.889</v>
+      </c>
+      <c r="L53">
+        <v>0.821</v>
+      </c>
+      <c r="M53">
+        <v>0.1172949</v>
+      </c>
+      <c r="N53">
+        <v>0.7037051</v>
+      </c>
+      <c r="O53">
+        <v>0.161852173</v>
+      </c>
+      <c r="P53">
+        <v>0.541852927</v>
+      </c>
+      <c r="Q53">
+        <v>1.430852927</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.0629184032117021</v>
+      </c>
+      <c r="T53">
+        <v>0.9926562433278042</v>
+      </c>
+      <c r="U53">
+        <v>0.0211</v>
+      </c>
+      <c r="V53">
+        <v>0.23</v>
+      </c>
+      <c r="W53">
+        <v>0.016247</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>6.999451809072687</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.0391169995014336</v>
+      </c>
+      <c r="C54">
+        <v>5.212763972575794</v>
+      </c>
+      <c r="D54">
+        <v>10.88076397257579</v>
+      </c>
+      <c r="E54">
+        <v>5.668</v>
+      </c>
+      <c r="F54">
+        <v>5.668</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>10.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.71</v>
+      </c>
+      <c r="K54">
+        <v>0.889</v>
+      </c>
+      <c r="L54">
+        <v>0.821</v>
+      </c>
+      <c r="M54">
+        <v>0.1195948</v>
+      </c>
+      <c r="N54">
+        <v>0.7014052</v>
+      </c>
+      <c r="O54">
+        <v>0.161323196</v>
+      </c>
+      <c r="P54">
+        <v>0.5400820039999999</v>
+      </c>
+      <c r="Q54">
+        <v>1.429082004</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.06389283229465334</v>
+      </c>
+      <c r="T54">
+        <v>1.010696189594996</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.23</v>
+      </c>
+      <c r="W54">
+        <v>0.016247</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>6.864846966590521</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.03911801142913317</v>
+      </c>
+      <c r="C55">
+        <v>5.103394714334597</v>
+      </c>
+      <c r="D55">
+        <v>10.8803947143346</v>
+      </c>
+      <c r="E55">
+        <v>5.777</v>
+      </c>
+      <c r="F55">
+        <v>5.777</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>10.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.71</v>
+      </c>
+      <c r="K55">
+        <v>0.889</v>
+      </c>
+      <c r="L55">
+        <v>0.821</v>
+      </c>
+      <c r="M55">
+        <v>0.1218947</v>
+      </c>
+      <c r="N55">
+        <v>0.6991052999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.160794219</v>
+      </c>
+      <c r="P55">
+        <v>0.5383110809999999</v>
+      </c>
+      <c r="Q55">
+        <v>1.427311081</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.06490872644496419</v>
+      </c>
+      <c r="T55">
+        <v>1.029503793150153</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.23</v>
+      </c>
+      <c r="W55">
+        <v>0.016247</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>6.735321552126548</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.03911902335683274</v>
+      </c>
+      <c r="C56">
+        <v>4.994025481155427</v>
+      </c>
+      <c r="D56">
+        <v>10.88002548115543</v>
+      </c>
+      <c r="E56">
+        <v>5.886000000000001</v>
+      </c>
+      <c r="F56">
+        <v>5.886000000000001</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>10.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.71</v>
+      </c>
+      <c r="K56">
+        <v>0.889</v>
+      </c>
+      <c r="L56">
+        <v>0.821</v>
+      </c>
+      <c r="M56">
+        <v>0.1241946</v>
+      </c>
+      <c r="N56">
+        <v>0.6968053999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.160265242</v>
+      </c>
+      <c r="P56">
+        <v>0.536540158</v>
+      </c>
+      <c r="Q56">
+        <v>1.425540158</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.06596878990615813</v>
+      </c>
+      <c r="T56">
+        <v>1.049129118599013</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.23</v>
+      </c>
+      <c r="W56">
+        <v>0.016247</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>6.610593375235315</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.03912003528453231</v>
+      </c>
+      <c r="C57">
+        <v>4.884656273035739</v>
+      </c>
+      <c r="D57">
+        <v>10.87965627303574</v>
+      </c>
+      <c r="E57">
+        <v>5.995000000000001</v>
+      </c>
+      <c r="F57">
+        <v>5.995000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>10.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.71</v>
+      </c>
+      <c r="K57">
+        <v>0.889</v>
+      </c>
+      <c r="L57">
+        <v>0.821</v>
+      </c>
+      <c r="M57">
+        <v>0.1264945</v>
+      </c>
+      <c r="N57">
+        <v>0.6945054999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.159736265</v>
+      </c>
+      <c r="P57">
+        <v>0.534769235</v>
+      </c>
+      <c r="Q57">
+        <v>1.423769235</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.0670759672989607</v>
+      </c>
+      <c r="T57">
+        <v>1.069626680734489</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.23</v>
+      </c>
+      <c r="W57">
+        <v>0.016247</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>6.490400768412854</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.03976784721223189</v>
+      </c>
+      <c r="C58">
+        <v>4.544331392946592</v>
+      </c>
+      <c r="D58">
+        <v>10.64833139294659</v>
+      </c>
+      <c r="E58">
+        <v>6.104000000000001</v>
+      </c>
+      <c r="F58">
+        <v>6.104000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>10.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.71</v>
+      </c>
+      <c r="K58">
+        <v>0.889</v>
+      </c>
+      <c r="L58">
+        <v>0.821</v>
+      </c>
+      <c r="M58">
+        <v>0.1379504</v>
+      </c>
+      <c r="N58">
+        <v>0.6830495999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.157101408</v>
+      </c>
+      <c r="P58">
+        <v>0.525948192</v>
+      </c>
+      <c r="Q58">
+        <v>1.414948192</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.06823347093689065</v>
+      </c>
+      <c r="T58">
+        <v>1.091055950239759</v>
+      </c>
+      <c r="U58">
+        <v>0.0226</v>
+      </c>
+      <c r="V58">
+        <v>0.23</v>
+      </c>
+      <c r="W58">
+        <v>0.017402</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>5.951414421415233</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.03978040913993145</v>
+      </c>
+      <c r="C59">
+        <v>4.430942883315204</v>
+      </c>
+      <c r="D59">
+        <v>10.6439428833152</v>
+      </c>
+      <c r="E59">
+        <v>6.213000000000001</v>
+      </c>
+      <c r="F59">
+        <v>6.213000000000001</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>10.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.71</v>
+      </c>
+      <c r="K59">
+        <v>0.889</v>
+      </c>
+      <c r="L59">
+        <v>0.821</v>
+      </c>
+      <c r="M59">
+        <v>0.1404138</v>
+      </c>
+      <c r="N59">
+        <v>0.6805861999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.156534826</v>
+      </c>
+      <c r="P59">
+        <v>0.5240513739999999</v>
+      </c>
+      <c r="Q59">
+        <v>1.413051374</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.06944481195332897</v>
+      </c>
+      <c r="T59">
+        <v>1.113481929954577</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.23</v>
+      </c>
+      <c r="W59">
+        <v>0.017402</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>5.847003642092158</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.03979297106763104</v>
+      </c>
+      <c r="C60">
+        <v>4.317557989477142</v>
+      </c>
+      <c r="D60">
+        <v>10.63955798947714</v>
+      </c>
+      <c r="E60">
+        <v>6.322</v>
+      </c>
+      <c r="F60">
+        <v>6.322</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>10.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.71</v>
+      </c>
+      <c r="K60">
+        <v>0.889</v>
+      </c>
+      <c r="L60">
+        <v>0.821</v>
+      </c>
+      <c r="M60">
+        <v>0.1428772</v>
+      </c>
+      <c r="N60">
+        <v>0.6781227999999999</v>
+      </c>
+      <c r="O60">
+        <v>0.155968244</v>
+      </c>
+      <c r="P60">
+        <v>0.5221545559999999</v>
+      </c>
+      <c r="Q60">
+        <v>1.411154556</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.07071383587531198</v>
+      </c>
+      <c r="T60">
+        <v>1.136975813465338</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.23</v>
+      </c>
+      <c r="W60">
+        <v>0.017402</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.746193234469881</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.0398055329953306</v>
+      </c>
+      <c r="C61">
+        <v>4.204176706965552</v>
+      </c>
+      <c r="D61">
+        <v>10.63517670696555</v>
+      </c>
+      <c r="E61">
+        <v>6.431</v>
+      </c>
+      <c r="F61">
+        <v>6.431</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>10.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.71</v>
+      </c>
+      <c r="K61">
+        <v>0.889</v>
+      </c>
+      <c r="L61">
+        <v>0.821</v>
+      </c>
+      <c r="M61">
+        <v>0.1453406</v>
+      </c>
+      <c r="N61">
+        <v>0.6756594</v>
+      </c>
+      <c r="O61">
+        <v>0.155401662</v>
+      </c>
+      <c r="P61">
+        <v>0.520257738</v>
+      </c>
+      <c r="Q61">
+        <v>1.409257738</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.07204476340324537</v>
+      </c>
+      <c r="T61">
+        <v>1.161615740074186</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.23</v>
+      </c>
+      <c r="W61">
+        <v>0.017402</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.6488001288009</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.03981809492303017</v>
+      </c>
+      <c r="C62">
+        <v>4.090799031320924</v>
+      </c>
+      <c r="D62">
+        <v>10.63079903132092</v>
+      </c>
+      <c r="E62">
+        <v>6.54</v>
+      </c>
+      <c r="F62">
+        <v>6.54</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>10.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.71</v>
+      </c>
+      <c r="K62">
+        <v>0.889</v>
+      </c>
+      <c r="L62">
+        <v>0.821</v>
+      </c>
+      <c r="M62">
+        <v>0.147804</v>
+      </c>
+      <c r="N62">
+        <v>0.6731959999999999</v>
+      </c>
+      <c r="O62">
+        <v>0.15483508</v>
+      </c>
+      <c r="P62">
+        <v>0.5183609199999999</v>
+      </c>
+      <c r="Q62">
+        <v>1.40736092</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.07344223730757543</v>
+      </c>
+      <c r="T62">
+        <v>1.187487663013475</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.23</v>
+      </c>
+      <c r="W62">
+        <v>0.017402</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.55465345998755</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.03983065685072975</v>
+      </c>
+      <c r="C63">
+        <v>3.977424958091082</v>
+      </c>
+      <c r="D63">
+        <v>10.62642495809108</v>
+      </c>
+      <c r="E63">
+        <v>6.649</v>
+      </c>
+      <c r="F63">
+        <v>6.649</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>10.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.71</v>
+      </c>
+      <c r="K63">
+        <v>0.889</v>
+      </c>
+      <c r="L63">
+        <v>0.821</v>
+      </c>
+      <c r="M63">
+        <v>0.1502674</v>
+      </c>
+      <c r="N63">
+        <v>0.6707326</v>
+      </c>
+      <c r="O63">
+        <v>0.154268498</v>
+      </c>
+      <c r="P63">
+        <v>0.516464102</v>
+      </c>
+      <c r="Q63">
+        <v>1.405464102</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.07491137654033268</v>
+      </c>
+      <c r="T63">
+        <v>1.214686351231703</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.23</v>
+      </c>
+      <c r="W63">
+        <v>0.017402</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.46359356720087</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.03984321877842932</v>
+      </c>
+      <c r="C64">
+        <v>3.864054482831196</v>
+      </c>
+      <c r="D64">
+        <v>10.6220544828312</v>
+      </c>
+      <c r="E64">
+        <v>6.758</v>
+      </c>
+      <c r="F64">
+        <v>6.758</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>10.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.71</v>
+      </c>
+      <c r="K64">
+        <v>0.889</v>
+      </c>
+      <c r="L64">
+        <v>0.821</v>
+      </c>
+      <c r="M64">
+        <v>0.1527308</v>
+      </c>
+      <c r="N64">
+        <v>0.6682691999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.153701916</v>
+      </c>
+      <c r="P64">
+        <v>0.514567284</v>
+      </c>
+      <c r="Q64">
+        <v>1.403567284</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.07645783889060347</v>
+      </c>
+      <c r="T64">
+        <v>1.243316549356153</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.23</v>
+      </c>
+      <c r="W64">
+        <v>0.017402</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.375471090310532</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.03985578070612888</v>
+      </c>
+      <c r="C65">
+        <v>3.750687601103725</v>
+      </c>
+      <c r="D65">
+        <v>10.61768760110373</v>
+      </c>
+      <c r="E65">
+        <v>6.867</v>
+      </c>
+      <c r="F65">
+        <v>6.867</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>10.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.71</v>
+      </c>
+      <c r="K65">
+        <v>0.889</v>
+      </c>
+      <c r="L65">
+        <v>0.821</v>
+      </c>
+      <c r="M65">
+        <v>0.1551942</v>
+      </c>
+      <c r="N65">
+        <v>0.6658058</v>
+      </c>
+      <c r="O65">
+        <v>0.153135334</v>
+      </c>
+      <c r="P65">
+        <v>0.512670466</v>
+      </c>
+      <c r="Q65">
+        <v>1.401670466</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.07808789380034833</v>
+      </c>
+      <c r="T65">
+        <v>1.273494325757601</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.23</v>
+      </c>
+      <c r="W65">
+        <v>0.017402</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.290146152369097</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.03986834263382846</v>
+      </c>
+      <c r="C66">
+        <v>3.637324308478431</v>
+      </c>
+      <c r="D66">
+        <v>10.61332430847843</v>
+      </c>
+      <c r="E66">
+        <v>6.976</v>
+      </c>
+      <c r="F66">
+        <v>6.976</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>10.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.71</v>
+      </c>
+      <c r="K66">
+        <v>0.889</v>
+      </c>
+      <c r="L66">
+        <v>0.821</v>
+      </c>
+      <c r="M66">
+        <v>0.1576576</v>
+      </c>
+      <c r="N66">
+        <v>0.6633424</v>
+      </c>
+      <c r="O66">
+        <v>0.152568752</v>
+      </c>
+      <c r="P66">
+        <v>0.510773648</v>
+      </c>
+      <c r="Q66">
+        <v>1.399773648</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.07980850731619016</v>
+      </c>
+      <c r="T66">
+        <v>1.305348645292462</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.23</v>
+      </c>
+      <c r="W66">
+        <v>0.017402</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.207487618738329</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.03988090456152803</v>
+      </c>
+      <c r="C67">
+        <v>3.52396460053235</v>
+      </c>
+      <c r="D67">
+        <v>10.60896460053235</v>
+      </c>
+      <c r="E67">
+        <v>7.085000000000001</v>
+      </c>
+      <c r="F67">
+        <v>7.085000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>10.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.71</v>
+      </c>
+      <c r="K67">
+        <v>0.889</v>
+      </c>
+      <c r="L67">
+        <v>0.821</v>
+      </c>
+      <c r="M67">
+        <v>0.160121</v>
+      </c>
+      <c r="N67">
+        <v>0.660879</v>
+      </c>
+      <c r="O67">
+        <v>0.15200217</v>
+      </c>
+      <c r="P67">
+        <v>0.5088768299999999</v>
+      </c>
+      <c r="Q67">
+        <v>1.39787683</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.0816274416043658</v>
+      </c>
+      <c r="T67">
+        <v>1.339023211657887</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.23</v>
+      </c>
+      <c r="W67">
+        <v>0.017402</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.127372424603893</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.03989346648922761</v>
+      </c>
+      <c r="C68">
+        <v>3.410608472849788</v>
+      </c>
+      <c r="D68">
+        <v>10.60460847284979</v>
+      </c>
+      <c r="E68">
+        <v>7.194000000000001</v>
+      </c>
+      <c r="F68">
+        <v>7.194000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>10.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.71</v>
+      </c>
+      <c r="K68">
+        <v>0.889</v>
+      </c>
+      <c r="L68">
+        <v>0.821</v>
+      </c>
+      <c r="M68">
+        <v>0.1625844</v>
+      </c>
+      <c r="N68">
+        <v>0.6584155999999999</v>
+      </c>
+      <c r="O68">
+        <v>0.151435588</v>
+      </c>
+      <c r="P68">
+        <v>0.5069800119999999</v>
+      </c>
+      <c r="Q68">
+        <v>1.395980012</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.08355337202714001</v>
+      </c>
+      <c r="T68">
+        <v>1.374678634868336</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.23</v>
+      </c>
+      <c r="W68">
+        <v>0.017402</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.049684963625046</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.03990602841692717</v>
+      </c>
+      <c r="C69">
+        <v>3.297255921022304</v>
+      </c>
+      <c r="D69">
+        <v>10.6002559210223</v>
+      </c>
+      <c r="E69">
+        <v>7.303000000000001</v>
+      </c>
+      <c r="F69">
+        <v>7.303000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>10.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.71</v>
+      </c>
+      <c r="K69">
+        <v>0.889</v>
+      </c>
+      <c r="L69">
+        <v>0.821</v>
+      </c>
+      <c r="M69">
+        <v>0.1650478</v>
+      </c>
+      <c r="N69">
+        <v>0.6559522</v>
+      </c>
+      <c r="O69">
+        <v>0.150869006</v>
+      </c>
+      <c r="P69">
+        <v>0.505083194</v>
+      </c>
+      <c r="Q69">
+        <v>1.394083194</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.08559602550583992</v>
+      </c>
+      <c r="T69">
+        <v>1.412494992818813</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.23</v>
+      </c>
+      <c r="W69">
+        <v>0.017402</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>4.974316531332136</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.03991859034462675</v>
+      </c>
+      <c r="C70">
+        <v>3.183906940648676</v>
+      </c>
+      <c r="D70">
+        <v>10.59590694064868</v>
+      </c>
+      <c r="E70">
+        <v>7.412000000000001</v>
+      </c>
+      <c r="F70">
+        <v>7.412000000000001</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>10.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.71</v>
+      </c>
+      <c r="K70">
+        <v>0.889</v>
+      </c>
+      <c r="L70">
+        <v>0.821</v>
+      </c>
+      <c r="M70">
+        <v>0.1675112</v>
+      </c>
+      <c r="N70">
+        <v>0.6534888</v>
+      </c>
+      <c r="O70">
+        <v>0.150302424</v>
+      </c>
+      <c r="P70">
+        <v>0.5031863759999999</v>
+      </c>
+      <c r="Q70">
+        <v>1.392186376</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.08776634482695858</v>
+      </c>
+      <c r="T70">
+        <v>1.452674873141195</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.23</v>
+      </c>
+      <c r="W70">
+        <v>0.017402</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>4.901164817636074</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.03993115227232633</v>
+      </c>
+      <c r="C71">
+        <v>3.070561527334918</v>
+      </c>
+      <c r="D71">
+        <v>10.59156152733492</v>
+      </c>
+      <c r="E71">
+        <v>7.521000000000001</v>
+      </c>
+      <c r="F71">
+        <v>7.521000000000001</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>10.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.71</v>
+      </c>
+      <c r="K71">
+        <v>0.889</v>
+      </c>
+      <c r="L71">
+        <v>0.821</v>
+      </c>
+      <c r="M71">
+        <v>0.1699746</v>
+      </c>
+      <c r="N71">
+        <v>0.6510254</v>
+      </c>
+      <c r="O71">
+        <v>0.149735842</v>
+      </c>
+      <c r="P71">
+        <v>0.501289558</v>
+      </c>
+      <c r="Q71">
+        <v>1.390289558</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.09007668474943976</v>
+      </c>
+      <c r="T71">
+        <v>1.495447003806956</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.23</v>
+      </c>
+      <c r="W71">
+        <v>0.017402</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>4.830133443467435</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.03994371420002588</v>
+      </c>
+      <c r="C72">
+        <v>2.957219676694251</v>
+      </c>
+      <c r="D72">
+        <v>10.58721967669425</v>
+      </c>
+      <c r="E72">
+        <v>7.630000000000001</v>
+      </c>
+      <c r="F72">
+        <v>7.630000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>10.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.71</v>
+      </c>
+      <c r="K72">
+        <v>0.889</v>
+      </c>
+      <c r="L72">
+        <v>0.821</v>
+      </c>
+      <c r="M72">
+        <v>0.172438</v>
+      </c>
+      <c r="N72">
+        <v>0.648562</v>
+      </c>
+      <c r="O72">
+        <v>0.14916926</v>
+      </c>
+      <c r="P72">
+        <v>0.49939274</v>
+      </c>
+      <c r="Q72">
+        <v>1.38839274</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.09254104733341963</v>
+      </c>
+      <c r="T72">
+        <v>1.541070609850435</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.23</v>
+      </c>
+      <c r="W72">
+        <v>0.017402</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>4.761131537132187</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.03995627612772546</v>
+      </c>
+      <c r="C73">
+        <v>2.843881384347065</v>
+      </c>
+      <c r="D73">
+        <v>10.58288138434706</v>
+      </c>
+      <c r="E73">
+        <v>7.739</v>
+      </c>
+      <c r="F73">
+        <v>7.739</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>10.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.71</v>
+      </c>
+      <c r="K73">
+        <v>0.889</v>
+      </c>
+      <c r="L73">
+        <v>0.821</v>
+      </c>
+      <c r="M73">
+        <v>0.1749014</v>
+      </c>
+      <c r="N73">
+        <v>0.6460986</v>
+      </c>
+      <c r="O73">
+        <v>0.148602678</v>
+      </c>
+      <c r="P73">
+        <v>0.497495922</v>
+      </c>
+      <c r="Q73">
+        <v>1.386495922</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.09517536595767399</v>
+      </c>
+      <c r="T73">
+        <v>1.589840671483119</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.23</v>
+      </c>
+      <c r="W73">
+        <v>0.017402</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>4.694073346468353</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.03996883805542503</v>
+      </c>
+      <c r="C74">
+        <v>2.730546645920946</v>
+      </c>
+      <c r="D74">
+        <v>10.57854664592095</v>
+      </c>
+      <c r="E74">
+        <v>7.848</v>
+      </c>
+      <c r="F74">
+        <v>7.848</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>10.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.71</v>
+      </c>
+      <c r="K74">
+        <v>0.889</v>
+      </c>
+      <c r="L74">
+        <v>0.821</v>
+      </c>
+      <c r="M74">
+        <v>0.1773648</v>
+      </c>
+      <c r="N74">
+        <v>0.6436352</v>
+      </c>
+      <c r="O74">
+        <v>0.148036096</v>
+      </c>
+      <c r="P74">
+        <v>0.495599104</v>
+      </c>
+      <c r="Q74">
+        <v>1.384599104</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.09799785019794653</v>
+      </c>
+      <c r="T74">
+        <v>1.642094308946708</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.23</v>
+      </c>
+      <c r="W74">
+        <v>0.017402</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>4.628877883322959</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.0399813999831246</v>
+      </c>
+      <c r="C75">
+        <v>2.617215457050633</v>
+      </c>
+      <c r="D75">
+        <v>10.57421545705063</v>
+      </c>
+      <c r="E75">
+        <v>7.957</v>
+      </c>
+      <c r="F75">
+        <v>7.957</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>10.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.71</v>
+      </c>
+      <c r="K75">
+        <v>0.889</v>
+      </c>
+      <c r="L75">
+        <v>0.821</v>
+      </c>
+      <c r="M75">
+        <v>0.1798282</v>
+      </c>
+      <c r="N75">
+        <v>0.6411718</v>
+      </c>
+      <c r="O75">
+        <v>0.147469514</v>
+      </c>
+      <c r="P75">
+        <v>0.493702286</v>
+      </c>
+      <c r="Q75">
+        <v>1.382702286</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1010294073449059</v>
+      </c>
+      <c r="T75">
+        <v>1.698218586222416</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.23</v>
+      </c>
+      <c r="W75">
+        <v>0.017402</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>4.565468597250042</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.03999396191082417</v>
+      </c>
+      <c r="C76">
+        <v>2.503887813378006</v>
+      </c>
+      <c r="D76">
+        <v>10.56988781337801</v>
+      </c>
+      <c r="E76">
+        <v>8.066000000000001</v>
+      </c>
+      <c r="F76">
+        <v>8.066000000000001</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>10.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.71</v>
+      </c>
+      <c r="K76">
+        <v>0.889</v>
+      </c>
+      <c r="L76">
+        <v>0.821</v>
+      </c>
+      <c r="M76">
+        <v>0.1822916</v>
+      </c>
+      <c r="N76">
+        <v>0.6387084</v>
+      </c>
+      <c r="O76">
+        <v>0.146902932</v>
+      </c>
+      <c r="P76">
+        <v>0.491805468</v>
+      </c>
+      <c r="Q76">
+        <v>1.380805468</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1042941611954776</v>
+      </c>
+      <c r="T76">
+        <v>1.758660115596255</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.23</v>
+      </c>
+      <c r="W76">
+        <v>0.017402</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>4.503773075665581</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.09178494130476839</v>
+      </c>
+      <c r="C77">
+        <v>-4.241776204073581</v>
+      </c>
+      <c r="D77">
+        <v>3.93322379592642</v>
+      </c>
+      <c r="E77">
+        <v>8.175000000000001</v>
+      </c>
+      <c r="F77">
+        <v>8.175000000000001</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>10.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.71</v>
+      </c>
+      <c r="K77">
+        <v>0.889</v>
+      </c>
+      <c r="L77">
+        <v>0.821</v>
+      </c>
+      <c r="M77">
+        <v>0.8910750000000001</v>
+      </c>
+      <c r="N77">
+        <v>-0.07007500000000011</v>
+      </c>
+      <c r="O77">
+        <v>-0.01611725000000003</v>
+      </c>
+      <c r="P77">
+        <v>-0.05395775000000008</v>
+      </c>
+      <c r="Q77">
+        <v>0.8350422499999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1094351780631102</v>
+      </c>
+      <c r="T77">
+        <v>1.853837558135151</v>
+      </c>
+      <c r="U77">
+        <v>0.109</v>
+      </c>
+      <c r="V77">
+        <v>0.2119125775046994</v>
+      </c>
+      <c r="W77">
+        <v>0.08590152905198777</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.9213590326291277</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.09278194130476838</v>
+      </c>
+      <c r="C78">
+        <v>-4.397749526246607</v>
+      </c>
+      <c r="D78">
+        <v>3.886250473753393</v>
+      </c>
+      <c r="E78">
+        <v>8.284000000000001</v>
+      </c>
+      <c r="F78">
+        <v>8.284000000000001</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>10.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.71</v>
+      </c>
+      <c r="K78">
+        <v>0.889</v>
+      </c>
+      <c r="L78">
+        <v>0.821</v>
+      </c>
+      <c r="M78">
+        <v>0.9029560000000001</v>
+      </c>
+      <c r="N78">
+        <v>-0.08195600000000014</v>
+      </c>
+      <c r="O78">
+        <v>-0.01884988000000003</v>
+      </c>
+      <c r="P78">
+        <v>-0.0631061200000001</v>
+      </c>
+      <c r="Q78">
+        <v>0.82589388</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1136074771490732</v>
+      </c>
+      <c r="T78">
+        <v>1.931080789724116</v>
+      </c>
+      <c r="U78">
+        <v>0.109</v>
+      </c>
+      <c r="V78">
+        <v>0.2091242541164796</v>
+      </c>
+      <c r="W78">
+        <v>0.08620545630130372</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.9092358874629549</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.09377894130476838</v>
+      </c>
+      <c r="C79">
+        <v>-4.552614112881922</v>
+      </c>
+      <c r="D79">
+        <v>3.840385887118079</v>
+      </c>
+      <c r="E79">
+        <v>8.393000000000001</v>
+      </c>
+      <c r="F79">
+        <v>8.393000000000001</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>10.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.71</v>
+      </c>
+      <c r="K79">
+        <v>0.889</v>
+      </c>
+      <c r="L79">
+        <v>0.821</v>
+      </c>
+      <c r="M79">
+        <v>0.9148370000000001</v>
+      </c>
+      <c r="N79">
+        <v>-0.09383700000000017</v>
+      </c>
+      <c r="O79">
+        <v>-0.02158251000000004</v>
+      </c>
+      <c r="P79">
+        <v>-0.07225449000000013</v>
+      </c>
+      <c r="Q79">
+        <v>0.8167455099999998</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1181425848512068</v>
+      </c>
+      <c r="T79">
+        <v>2.015040824059946</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.2064083547123695</v>
+      </c>
+      <c r="W79">
+        <v>0.08650148933635173</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.8974276291842151</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.09477594130476838</v>
+      </c>
+      <c r="C80">
+        <v>-4.70640876118892</v>
+      </c>
+      <c r="D80">
+        <v>3.795591238811082</v>
+      </c>
+      <c r="E80">
+        <v>8.502000000000001</v>
+      </c>
+      <c r="F80">
+        <v>8.502000000000001</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>10.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.71</v>
+      </c>
+      <c r="K80">
+        <v>0.889</v>
+      </c>
+      <c r="L80">
+        <v>0.821</v>
+      </c>
+      <c r="M80">
+        <v>0.926718</v>
+      </c>
+      <c r="N80">
+        <v>-0.1057180000000001</v>
+      </c>
+      <c r="O80">
+        <v>-0.02431514000000002</v>
+      </c>
+      <c r="P80">
+        <v>-0.08140286000000006</v>
+      </c>
+      <c r="Q80">
+        <v>0.8075971399999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1230899750717162</v>
+      </c>
+      <c r="T80">
+        <v>2.106633588789944</v>
+      </c>
+      <c r="U80">
+        <v>0.109</v>
+      </c>
+      <c r="V80">
+        <v>0.2037620937545186</v>
+      </c>
+      <c r="W80">
+        <v>0.08678993178075747</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.8859221467587766</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.09577294130476838</v>
+      </c>
+      <c r="C81">
+        <v>-4.859170479108951</v>
+      </c>
+      <c r="D81">
+        <v>3.751829520891051</v>
+      </c>
+      <c r="E81">
+        <v>8.611000000000001</v>
+      </c>
+      <c r="F81">
+        <v>8.611000000000001</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>10.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.71</v>
+      </c>
+      <c r="K81">
+        <v>0.889</v>
+      </c>
+      <c r="L81">
+        <v>0.821</v>
+      </c>
+      <c r="M81">
+        <v>0.9385990000000001</v>
+      </c>
+      <c r="N81">
+        <v>-0.1175990000000001</v>
+      </c>
+      <c r="O81">
+        <v>-0.02704777000000003</v>
+      </c>
+      <c r="P81">
+        <v>-0.09055123000000009</v>
+      </c>
+      <c r="Q81">
+        <v>0.7984487699999999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1285085453132264</v>
+      </c>
+      <c r="T81">
+        <v>2.206949473970417</v>
+      </c>
+      <c r="U81">
+        <v>0.109</v>
+      </c>
+      <c r="V81">
+        <v>0.2011828267449677</v>
+      </c>
+      <c r="W81">
+        <v>0.08707107188479851</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.874707942369425</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.09676994130476838</v>
+      </c>
+      <c r="C82">
+        <v>-5.010934587287498</v>
+      </c>
+      <c r="D82">
+        <v>3.709065412712502</v>
+      </c>
+      <c r="E82">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="F82">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>10.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.71</v>
+      </c>
+      <c r="K82">
+        <v>0.889</v>
+      </c>
+      <c r="L82">
+        <v>0.821</v>
+      </c>
+      <c r="M82">
+        <v>0.9504800000000001</v>
+      </c>
+      <c r="N82">
+        <v>-0.1294800000000002</v>
+      </c>
+      <c r="O82">
+        <v>-0.02978040000000004</v>
+      </c>
+      <c r="P82">
+        <v>-0.09969960000000011</v>
+      </c>
+      <c r="Q82">
+        <v>0.7893003999999999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1344689725788878</v>
+      </c>
+      <c r="T82">
+        <v>2.317296947668939</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.1986680414106556</v>
+      </c>
+      <c r="W82">
+        <v>0.08734518348623853</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.8637740930898071</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.09776694130476839</v>
+      </c>
+      <c r="C83">
+        <v>-5.161734814151169</v>
+      </c>
+      <c r="D83">
+        <v>3.667265185848831</v>
+      </c>
+      <c r="E83">
+        <v>8.829000000000001</v>
+      </c>
+      <c r="F83">
+        <v>8.829000000000001</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>10.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.71</v>
+      </c>
+      <c r="K83">
+        <v>0.889</v>
+      </c>
+      <c r="L83">
+        <v>0.821</v>
+      </c>
+      <c r="M83">
+        <v>0.962361</v>
+      </c>
+      <c r="N83">
+        <v>-0.1413610000000001</v>
+      </c>
+      <c r="O83">
+        <v>-0.03251303000000002</v>
+      </c>
+      <c r="P83">
+        <v>-0.10884797</v>
+      </c>
+      <c r="Q83">
+        <v>0.78015203</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1410568132409345</v>
+      </c>
+      <c r="T83">
+        <v>2.439259944914672</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.1962153495413883</v>
+      </c>
+      <c r="W83">
+        <v>0.08761252689998868</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.8531102153973404</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.09876394130476839</v>
+      </c>
+      <c r="C84">
+        <v>-5.311603384627356</v>
+      </c>
+      <c r="D84">
+        <v>3.626396615372645</v>
+      </c>
+      <c r="E84">
+        <v>8.938000000000001</v>
+      </c>
+      <c r="F84">
+        <v>8.938000000000001</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>10.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.71</v>
+      </c>
+      <c r="K84">
+        <v>0.889</v>
+      </c>
+      <c r="L84">
+        <v>0.821</v>
+      </c>
+      <c r="M84">
+        <v>0.9742420000000001</v>
+      </c>
+      <c r="N84">
+        <v>-0.1532420000000001</v>
+      </c>
+      <c r="O84">
+        <v>-0.03524566000000003</v>
+      </c>
+      <c r="P84">
+        <v>-0.1179963400000001</v>
+      </c>
+      <c r="Q84">
+        <v>0.77100366</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.1483766361987642</v>
+      </c>
+      <c r="T84">
+        <v>2.574774386298821</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.1938224794250299</v>
+      </c>
+      <c r="W84">
+        <v>0.08787334974267175</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.8427064322827387</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.0997609413047684</v>
+      </c>
+      <c r="C85">
+        <v>-5.460571102997051</v>
+      </c>
+      <c r="D85">
+        <v>3.58642889700295</v>
+      </c>
+      <c r="E85">
+        <v>9.047000000000001</v>
+      </c>
+      <c r="F85">
+        <v>9.047000000000001</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>10.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.71</v>
+      </c>
+      <c r="K85">
+        <v>0.889</v>
+      </c>
+      <c r="L85">
+        <v>0.821</v>
+      </c>
+      <c r="M85">
+        <v>0.9861230000000001</v>
+      </c>
+      <c r="N85">
+        <v>-0.1651230000000001</v>
+      </c>
+      <c r="O85">
+        <v>-0.03797829000000003</v>
+      </c>
+      <c r="P85">
+        <v>-0.1271447100000001</v>
+      </c>
+      <c r="Q85">
+        <v>0.76185529</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.1565576147986916</v>
+      </c>
+      <c r="T85">
+        <v>2.726231703139929</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.1914872688295476</v>
+      </c>
+      <c r="W85">
+        <v>0.08812788769757932</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.8325533427371635</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1007579413047684</v>
+      </c>
+      <c r="C86">
+        <v>-5.608667430328501</v>
+      </c>
+      <c r="D86">
+        <v>3.547332569671499</v>
+      </c>
+      <c r="E86">
+        <v>9.156000000000001</v>
+      </c>
+      <c r="F86">
+        <v>9.156000000000001</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>10.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.71</v>
+      </c>
+      <c r="K86">
+        <v>0.889</v>
+      </c>
+      <c r="L86">
+        <v>0.821</v>
+      </c>
+      <c r="M86">
+        <v>0.9980040000000001</v>
+      </c>
+      <c r="N86">
+        <v>-0.1770040000000002</v>
+      </c>
+      <c r="O86">
+        <v>-0.04071092000000004</v>
+      </c>
+      <c r="P86">
+        <v>-0.1362930800000001</v>
+      </c>
+      <c r="Q86">
+        <v>0.7527069199999998</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.1657612157236097</v>
+      </c>
+      <c r="T86">
+        <v>2.896621184586173</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.1892076584863387</v>
+      </c>
+      <c r="W86">
+        <v>0.08837636522498908</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.8226419934188639</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1017549413047684</v>
+      </c>
+      <c r="C87">
+        <v>-5.755920556900765</v>
+      </c>
+      <c r="D87">
+        <v>3.509079443099236</v>
+      </c>
+      <c r="E87">
+        <v>9.265000000000001</v>
+      </c>
+      <c r="F87">
+        <v>9.265000000000001</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>10.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.71</v>
+      </c>
+      <c r="K87">
+        <v>0.889</v>
+      </c>
+      <c r="L87">
+        <v>0.821</v>
+      </c>
+      <c r="M87">
+        <v>1.009885</v>
+      </c>
+      <c r="N87">
+        <v>-0.1888850000000002</v>
+      </c>
+      <c r="O87">
+        <v>-0.04344355000000005</v>
+      </c>
+      <c r="P87">
+        <v>-0.1454414500000001</v>
+      </c>
+      <c r="Q87">
+        <v>0.7435585499999999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.176191963438517</v>
+      </c>
+      <c r="T87">
+        <v>3.089729263558584</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.1869816860335582</v>
+      </c>
+      <c r="W87">
+        <v>0.08861899622234215</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.8129638523198184</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1027519413047684</v>
+      </c>
+      <c r="C88">
+        <v>-5.902357469991317</v>
+      </c>
+      <c r="D88">
+        <v>3.471642530008683</v>
+      </c>
+      <c r="E88">
+        <v>9.374000000000001</v>
+      </c>
+      <c r="F88">
+        <v>9.374000000000001</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>10.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.71</v>
+      </c>
+      <c r="K88">
+        <v>0.889</v>
+      </c>
+      <c r="L88">
+        <v>0.821</v>
+      </c>
+      <c r="M88">
+        <v>1.021766</v>
+      </c>
+      <c r="N88">
+        <v>-0.200766</v>
+      </c>
+      <c r="O88">
+        <v>-0.04617618</v>
+      </c>
+      <c r="P88">
+        <v>-0.15458982</v>
+      </c>
+      <c r="Q88">
+        <v>0.73441018</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.1881128179698397</v>
+      </c>
+      <c r="T88">
+        <v>3.310424210955626</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.1848074803820053</v>
+      </c>
+      <c r="W88">
+        <v>0.08885598463836143</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.8035107842695881</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1319456819898802</v>
+      </c>
+      <c r="C89">
+        <v>-6.837723552580688</v>
+      </c>
+      <c r="D89">
+        <v>2.645276447419312</v>
+      </c>
+      <c r="E89">
+        <v>9.483000000000001</v>
+      </c>
+      <c r="F89">
+        <v>9.483000000000001</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>10.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.71</v>
+      </c>
+      <c r="K89">
+        <v>0.889</v>
+      </c>
+      <c r="L89">
+        <v>0.821</v>
+      </c>
+      <c r="M89">
+        <v>1.3295166</v>
+      </c>
+      <c r="N89">
+        <v>-0.5085166000000001</v>
+      </c>
+      <c r="O89">
+        <v>-0.116958818</v>
+      </c>
+      <c r="P89">
+        <v>-0.3915577820000001</v>
+      </c>
+      <c r="Q89">
+        <v>0.4974422179999999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2099656553914571</v>
+      </c>
+      <c r="T89">
+        <v>3.714993429761861</v>
+      </c>
+      <c r="U89">
+        <v>0.1402</v>
+      </c>
+      <c r="V89">
+        <v>0.142029065300877</v>
+      </c>
+      <c r="W89">
+        <v>0.120287525044817</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.6175176752212044</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1332546819898802</v>
+      </c>
+      <c r="C90">
+        <v>-6.974658494723128</v>
+      </c>
+      <c r="D90">
+        <v>2.617341505276872</v>
+      </c>
+      <c r="E90">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="F90">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>10.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.71</v>
+      </c>
+      <c r="K90">
+        <v>0.889</v>
+      </c>
+      <c r="L90">
+        <v>0.821</v>
+      </c>
+      <c r="M90">
+        <v>1.3447984</v>
+      </c>
+      <c r="N90">
+        <v>-0.5237984</v>
+      </c>
+      <c r="O90">
+        <v>-0.120473632</v>
+      </c>
+      <c r="P90">
+        <v>-0.403324768</v>
+      </c>
+      <c r="Q90">
+        <v>0.485675232</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2266877933407452</v>
+      </c>
+      <c r="T90">
+        <v>4.024576215575349</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.1404150986497307</v>
+      </c>
+      <c r="W90">
+        <v>0.1205138031693078</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.6105004289118725</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1345636819898803</v>
+      </c>
+      <c r="C91">
+        <v>-7.111009599017542</v>
+      </c>
+      <c r="D91">
+        <v>2.589990400982459</v>
+      </c>
+      <c r="E91">
+        <v>9.701000000000001</v>
+      </c>
+      <c r="F91">
+        <v>9.701000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>10.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.71</v>
+      </c>
+      <c r="K91">
+        <v>0.889</v>
+      </c>
+      <c r="L91">
+        <v>0.821</v>
+      </c>
+      <c r="M91">
+        <v>1.3600802</v>
+      </c>
+      <c r="N91">
+        <v>-0.5390802000000001</v>
+      </c>
+      <c r="O91">
+        <v>-0.123988446</v>
+      </c>
+      <c r="P91">
+        <v>-0.4150917540000001</v>
+      </c>
+      <c r="Q91">
+        <v>0.4739082459999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.2464503200080857</v>
+      </c>
+      <c r="T91">
+        <v>4.390446780627654</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.1388374009120933</v>
+      </c>
+      <c r="W91">
+        <v>0.1207349963921245</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.6036408735308403</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1358726819898802</v>
+      </c>
+      <c r="C92">
+        <v>-7.246794979413898</v>
+      </c>
+      <c r="D92">
+        <v>2.563205020586103</v>
+      </c>
+      <c r="E92">
+        <v>9.81</v>
+      </c>
+      <c r="F92">
+        <v>9.81</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>10.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.71</v>
+      </c>
+      <c r="K92">
+        <v>0.889</v>
+      </c>
+      <c r="L92">
+        <v>0.821</v>
+      </c>
+      <c r="M92">
+        <v>1.375362</v>
+      </c>
+      <c r="N92">
+        <v>-0.554362</v>
+      </c>
+      <c r="O92">
+        <v>-0.12750326</v>
+      </c>
+      <c r="P92">
+        <v>-0.42685874</v>
+      </c>
+      <c r="Q92">
+        <v>0.46214126</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.2701653520088942</v>
+      </c>
+      <c r="T92">
+        <v>4.829491458690419</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.1372947631241811</v>
+      </c>
+      <c r="W92">
+        <v>0.1209512742099898</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.596933752713831</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1371816819898802</v>
+      </c>
+      <c r="C93">
+        <v>-7.382032008202843</v>
+      </c>
+      <c r="D93">
+        <v>2.536967991797157</v>
+      </c>
+      <c r="E93">
+        <v>9.919</v>
+      </c>
+      <c r="F93">
+        <v>9.919</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>10.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.71</v>
+      </c>
+      <c r="K93">
+        <v>0.889</v>
+      </c>
+      <c r="L93">
+        <v>0.821</v>
+      </c>
+      <c r="M93">
+        <v>1.3906438</v>
+      </c>
+      <c r="N93">
+        <v>-0.5696437999999999</v>
+      </c>
+      <c r="O93">
+        <v>-0.131018074</v>
+      </c>
+      <c r="P93">
+        <v>-0.4386257259999999</v>
+      </c>
+      <c r="Q93">
+        <v>0.4503742740000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.2991503911209936</v>
+      </c>
+      <c r="T93">
+        <v>5.366101620767132</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.1357860294634758</v>
+      </c>
+      <c r="W93">
+        <v>0.1211627986692207</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.5903740411455471</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1384906819898803</v>
+      </c>
+      <c r="C94">
+        <v>-7.516737353589306</v>
+      </c>
+      <c r="D94">
+        <v>2.511262646410695</v>
+      </c>
+      <c r="E94">
+        <v>10.028</v>
+      </c>
+      <c r="F94">
+        <v>10.028</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>10.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.71</v>
+      </c>
+      <c r="K94">
+        <v>0.889</v>
+      </c>
+      <c r="L94">
+        <v>0.821</v>
+      </c>
+      <c r="M94">
+        <v>1.4059256</v>
+      </c>
+      <c r="N94">
+        <v>-0.5849256</v>
+      </c>
+      <c r="O94">
+        <v>-0.134532888</v>
+      </c>
+      <c r="P94">
+        <v>-0.450392712</v>
+      </c>
+      <c r="Q94">
+        <v>0.438607288</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.335381690011118</v>
+      </c>
+      <c r="T94">
+        <v>6.036864323363027</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.134310094360612</v>
+      </c>
+      <c r="W94">
+        <v>0.1213697247706422</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.5839569320026607</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1397996819898802</v>
+      </c>
+      <c r="C95">
+        <v>-7.650927015004776</v>
+      </c>
+      <c r="D95">
+        <v>2.486072984995224</v>
+      </c>
+      <c r="E95">
+        <v>10.137</v>
+      </c>
+      <c r="F95">
+        <v>10.137</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>10.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.71</v>
+      </c>
+      <c r="K95">
+        <v>0.889</v>
+      </c>
+      <c r="L95">
+        <v>0.821</v>
+      </c>
+      <c r="M95">
+        <v>1.4212074</v>
+      </c>
+      <c r="N95">
+        <v>-0.6002073999999999</v>
+      </c>
+      <c r="O95">
+        <v>-0.138047702</v>
+      </c>
+      <c r="P95">
+        <v>-0.462159698</v>
+      </c>
+      <c r="Q95">
+        <v>0.4268403020000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.3819647885841349</v>
+      </c>
+      <c r="T95">
+        <v>6.899273512414888</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.1328658997975946</v>
+      </c>
+      <c r="W95">
+        <v>0.1215722008483772</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.5776778252069332</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1411086819898802</v>
+      </c>
+      <c r="C96">
+        <v>-7.784616356315455</v>
+      </c>
+      <c r="D96">
+        <v>2.461383643684546</v>
+      </c>
+      <c r="E96">
+        <v>10.246</v>
+      </c>
+      <c r="F96">
+        <v>10.246</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>10.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.71</v>
+      </c>
+      <c r="K96">
+        <v>0.889</v>
+      </c>
+      <c r="L96">
+        <v>0.821</v>
+      </c>
+      <c r="M96">
+        <v>1.4364892</v>
+      </c>
+      <c r="N96">
+        <v>-0.6154892000000001</v>
+      </c>
+      <c r="O96">
+        <v>-0.141562516</v>
+      </c>
+      <c r="P96">
+        <v>-0.473926684</v>
+      </c>
+      <c r="Q96">
+        <v>0.415073316</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.4440755866814907</v>
+      </c>
+      <c r="T96">
+        <v>8.049152431150704</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.1314524327784713</v>
+      </c>
+      <c r="W96">
+        <v>0.1217703689244583</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5715323164281361</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1424176819898803</v>
+      </c>
+      <c r="C97">
+        <v>-7.917820137071102</v>
+      </c>
+      <c r="D97">
+        <v>2.437179862928898</v>
+      </c>
+      <c r="E97">
+        <v>10.355</v>
+      </c>
+      <c r="F97">
+        <v>10.355</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>10.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.71</v>
+      </c>
+      <c r="K97">
+        <v>0.889</v>
+      </c>
+      <c r="L97">
+        <v>0.821</v>
+      </c>
+      <c r="M97">
+        <v>1.451771</v>
+      </c>
+      <c r="N97">
+        <v>-0.630771</v>
+      </c>
+      <c r="O97">
+        <v>-0.14507733</v>
+      </c>
+      <c r="P97">
+        <v>-0.48569367</v>
+      </c>
+      <c r="Q97">
+        <v>0.40330633</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.5310307040177892</v>
+      </c>
+      <c r="T97">
+        <v>9.65898291738085</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.1300687229597505</v>
+      </c>
+      <c r="W97">
+        <v>0.121964365041043</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.5655161867815242</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1437266819898803</v>
+      </c>
+      <c r="C98">
+        <v>-8.050552541928152</v>
+      </c>
+      <c r="D98">
+        <v>2.413447458071848</v>
+      </c>
+      <c r="E98">
+        <v>10.464</v>
+      </c>
+      <c r="F98">
+        <v>10.464</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>10.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.71</v>
+      </c>
+      <c r="K98">
+        <v>0.889</v>
+      </c>
+      <c r="L98">
+        <v>0.821</v>
+      </c>
+      <c r="M98">
+        <v>1.4670528</v>
+      </c>
+      <c r="N98">
+        <v>-0.6460528000000001</v>
+      </c>
+      <c r="O98">
+        <v>-0.148592144</v>
+      </c>
+      <c r="P98">
+        <v>-0.4974606560000001</v>
+      </c>
+      <c r="Q98">
+        <v>0.391539344</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.661463380022235</v>
+      </c>
+      <c r="T98">
+        <v>12.07372864672604</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.1287138404289198</v>
+      </c>
+      <c r="W98">
+        <v>0.1221543195718654</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.5596253931692166</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1450356819898803</v>
+      </c>
+      <c r="C99">
+        <v>-8.18282720837033</v>
+      </c>
+      <c r="D99">
+        <v>2.390172791629669</v>
+      </c>
+      <c r="E99">
+        <v>10.573</v>
+      </c>
+      <c r="F99">
+        <v>10.573</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>10.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.71</v>
+      </c>
+      <c r="K99">
+        <v>0.889</v>
+      </c>
+      <c r="L99">
+        <v>0.821</v>
+      </c>
+      <c r="M99">
+        <v>1.4823346</v>
+      </c>
+      <c r="N99">
+        <v>-0.6613346</v>
+      </c>
+      <c r="O99">
+        <v>-0.152106958</v>
+      </c>
+      <c r="P99">
+        <v>-0.5092276419999999</v>
+      </c>
+      <c r="Q99">
+        <v>0.3797723580000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>0.87885117336298</v>
+      </c>
+      <c r="T99">
+        <v>16.09830486230138</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.1273868936203742</v>
+      </c>
+      <c r="W99">
+        <v>0.1223403575144235</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5538560592190185</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1463446819898802</v>
+      </c>
+      <c r="C100">
+        <v>-8.314657252840602</v>
+      </c>
+      <c r="D100">
+        <v>2.367342747159398</v>
+      </c>
+      <c r="E100">
+        <v>10.682</v>
+      </c>
+      <c r="F100">
+        <v>10.682</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>10.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.71</v>
+      </c>
+      <c r="K100">
+        <v>0.889</v>
+      </c>
+      <c r="L100">
+        <v>0.821</v>
+      </c>
+      <c r="M100">
+        <v>1.4976164</v>
+      </c>
+      <c r="N100">
+        <v>-0.6766164000000001</v>
+      </c>
+      <c r="O100">
+        <v>-0.155621772</v>
+      </c>
+      <c r="P100">
+        <v>-0.5209946280000001</v>
+      </c>
+      <c r="Q100">
+        <v>0.3680053719999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.31362676004447</v>
+      </c>
+      <c r="T100">
+        <v>24.14745729345207</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1260870273589418</v>
+      </c>
+      <c r="W100">
+        <v>0.1225225987642763</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.5482044667780079</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1476536819898802</v>
+      </c>
+      <c r="C101">
+        <v>-8.446055295389685</v>
+      </c>
+      <c r="D101">
+        <v>2.344944704610314</v>
+      </c>
+      <c r="E101">
+        <v>10.791</v>
+      </c>
+      <c r="F101">
+        <v>10.791</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>10.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.71</v>
+      </c>
+      <c r="K101">
+        <v>0.889</v>
+      </c>
+      <c r="L101">
+        <v>0.821</v>
+      </c>
+      <c r="M101">
+        <v>1.5128982</v>
+      </c>
+      <c r="N101">
+        <v>-0.6918982</v>
+      </c>
+      <c r="O101">
+        <v>-0.159136586</v>
+      </c>
+      <c r="P101">
+        <v>-0.532761614</v>
+      </c>
+      <c r="Q101">
+        <v>0.356238386</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>2.61795352008894</v>
+      </c>
+      <c r="T101">
+        <v>48.29491458690414</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1248134210219829</v>
+      </c>
+      <c r="W101">
+        <v>0.122701158372718</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5426670479216644</v>
+      </c>
+      <c r="Z101">
         <v>0</v>
       </c>
     </row>
